--- a/developingCalcData.xlsx
+++ b/developingCalcData.xlsx
@@ -696,6 +696,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -703,9 +706,6 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1027,11 +1027,12 @@
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="54" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1174,7 +1175,7 @@
       </c>
     </row>
     <row r="17" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1272,7 +1273,7 @@
       <c r="BZ17" s="17"/>
     </row>
     <row r="18" spans="1:78" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="8">
         <v>18</v>
       </c>
@@ -1580,7 +1581,7 @@
       </c>
     </row>
     <row r="19" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="19">
         <v>20</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="BZ19" s="50"/>
     </row>
     <row r="20" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="8">
         <v>22</v>
       </c>
@@ -1983,7 +1984,7 @@
       </c>
     </row>
     <row r="21" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="8">
         <v>24</v>
       </c>
@@ -2290,7 +2291,7 @@
       </c>
     </row>
     <row r="22" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="10">
         <v>26</v>
       </c>
@@ -8487,7 +8488,7 @@
       </c>
     </row>
     <row r="48" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -8799,7 +8800,7 @@
       </c>
     </row>
     <row r="49" spans="1:78" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="56"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="48">
         <v>8</v>
       </c>
@@ -9109,7 +9110,7 @@
       </c>
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A50" s="56"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="48">
         <v>10</v>
       </c>
@@ -9419,7 +9420,7 @@
       </c>
     </row>
     <row r="51" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="14">
         <v>12</v>
       </c>
@@ -9729,7 +9730,7 @@
       </c>
     </row>
     <row r="52" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="14">
         <v>14</v>
       </c>
@@ -10039,7 +10040,7 @@
       </c>
     </row>
     <row r="53" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="14">
         <v>16</v>
       </c>
@@ -10349,7 +10350,7 @@
       </c>
     </row>
     <row r="54" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="8">
         <v>18</v>
       </c>
@@ -10659,7 +10660,7 @@
       </c>
     </row>
     <row r="55" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="21">
         <v>20</v>
       </c>
@@ -10969,7 +10970,7 @@
       </c>
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="8">
         <v>22</v>
       </c>
@@ -11279,7 +11280,7 @@
       </c>
     </row>
     <row r="57" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="8">
         <v>24</v>
       </c>
@@ -11589,7 +11590,7 @@
       </c>
     </row>
     <row r="58" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="8">
         <v>26</v>
       </c>
@@ -11899,7 +11900,7 @@
       </c>
     </row>
     <row r="59" spans="1:78" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="15">
         <v>28</v>
       </c>
@@ -12209,7 +12210,7 @@
       </c>
     </row>
     <row r="60" spans="1:78" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+      <c r="A60" s="57"/>
       <c r="B60" s="16">
         <v>30</v>
       </c>

--- a/developingCalcData.xlsx
+++ b/developingCalcData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>D-76</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>HOLGA400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rollei RPX100</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1175,7 +1179,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L6" sqref="L6"/>
+      <selection pane="topRight" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1361,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="52">
         <f>IF(D6="","",IF(SUM(D6:W6)&lt;=36,1,IF(SUM(D6:W6)&lt;=72,2,IF(SUM(D6:W6)&lt;=108,3,IF(SUM(D6:W6)&lt;=144,4,IF(SUM(D6:W6)&lt;=180,5,IF(SUM(D6:W6)&lt;=216,6,IF(SUM(D6:W6)&lt;=242,7,IF(SUM(D6:W6)&lt;=278,8,"ERR")))))))))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="58">
         <v>36</v>
@@ -1383,8 +1387,12 @@
       <c r="K6" s="11">
         <v>24</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="L6" s="11">
+        <v>20</v>
+      </c>
+      <c r="M6" s="11">
+        <v>20</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1558,7 +1566,9 @@
       <c r="N17" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="17"/>
+      <c r="O17" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
@@ -1674,9 +1684,9 @@
         <f t="shared" si="1"/>
         <v>8.7931034482758612</v>
       </c>
-      <c r="O18" s="49" t="str">
+      <c r="O18" s="49">
         <f t="shared" si="1"/>
-        <v/>
+        <v>10.551724137931034</v>
       </c>
       <c r="P18" s="49" t="str">
         <f t="shared" si="1"/>
@@ -1972,7 +1982,9 @@
       <c r="N19" s="50">
         <v>7.5</v>
       </c>
-      <c r="O19" s="50"/>
+      <c r="O19" s="50">
+        <v>9</v>
+      </c>
       <c r="P19" s="50"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
@@ -2087,9 +2099,9 @@
         <f t="shared" si="3"/>
         <v>6.4655172413793096</v>
       </c>
-      <c r="O20" s="49" t="str">
+      <c r="O20" s="49">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.7586206896551717</v>
       </c>
       <c r="P20" s="49" t="str">
         <f t="shared" si="3"/>
@@ -2394,9 +2406,9 @@
         <f t="shared" si="5"/>
         <v>5.431034482758621</v>
       </c>
-      <c r="O21" s="49" t="str">
+      <c r="O21" s="49">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6.5172413793103452</v>
       </c>
       <c r="P21" s="49" t="str">
         <f t="shared" si="5"/>
@@ -2703,9 +2715,9 @@
         <f t="shared" si="5"/>
         <v>4.6551724137931032</v>
       </c>
-      <c r="O22" s="51" t="str">
+      <c r="O22" s="51">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5.5862068965517242</v>
       </c>
       <c r="P22" s="51" t="str">
         <f t="shared" si="5"/>
@@ -3019,7 +3031,7 @@
       </c>
       <c r="O25" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>Rollei RPX100</v>
       </c>
       <c r="P25" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3326,9 +3338,9 @@
         <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
-      <c r="O26" s="27" t="str">
+      <c r="O26" s="27">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1.2499999999999998</v>
       </c>
       <c r="P26" s="27" t="str">
         <f t="shared" si="11"/>
@@ -3635,9 +3647,9 @@
         <f t="shared" si="14"/>
         <v>1.1764705882352942</v>
       </c>
-      <c r="O27" s="27" t="str">
+      <c r="O27" s="27">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1.1764705882352944</v>
       </c>
       <c r="P27" s="27" t="str">
         <f t="shared" si="14"/>
@@ -3944,9 +3956,9 @@
         <f t="shared" si="16"/>
         <v>1.2142857142857142</v>
       </c>
-      <c r="O28" s="27" t="str">
+      <c r="O28" s="27">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1.2142857142857142</v>
       </c>
       <c r="P28" s="27" t="str">
         <f t="shared" si="16"/>
@@ -4253,9 +4265,9 @@
         <f t="shared" si="18"/>
         <v>1.2173913043478264</v>
       </c>
-      <c r="O29" s="27" t="str">
+      <c r="O29" s="27">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1.2173913043478262</v>
       </c>
       <c r="P29" s="27" t="str">
         <f t="shared" si="18"/>
@@ -4562,9 +4574,9 @@
         <f t="shared" si="20"/>
         <v>1.2145369017172087</v>
       </c>
-      <c r="O30" s="37" t="str">
+      <c r="O30" s="37">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1.2145369017172087</v>
       </c>
       <c r="P30" s="37" t="str">
         <f t="shared" si="20"/>
@@ -4879,7 +4891,7 @@
       </c>
       <c r="O33" s="6" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>Rollei RPX100</v>
       </c>
       <c r="P33" s="6" t="str">
         <f t="shared" si="23"/>
@@ -5186,9 +5198,9 @@
         <f t="shared" ref="N34:N38" si="31">IF(N35&lt;&gt;"",N35*N26,"")</f>
         <v>34.141779471060971</v>
       </c>
-      <c r="O34" s="22" t="str">
+      <c r="O34" s="22">
         <f t="shared" ref="O34:O38" si="32">IF(O35&lt;&gt;"",O35*O26,"")</f>
-        <v/>
+        <v>40.970135365273165</v>
       </c>
       <c r="P34" s="22" t="str">
         <f t="shared" ref="P34:P38" si="33">IF(P35&lt;&gt;"",P35*P26,"")</f>
@@ -5495,9 +5507,9 @@
         <f t="shared" si="31"/>
         <v>27.313423576848777</v>
       </c>
-      <c r="O35" s="22" t="str">
+      <c r="O35" s="22">
         <f t="shared" si="32"/>
-        <v/>
+        <v>32.776108292218538</v>
       </c>
       <c r="P35" s="22" t="str">
         <f t="shared" si="33"/>
@@ -5804,9 +5816,9 @@
         <f t="shared" si="31"/>
         <v>23.21641004032146</v>
       </c>
-      <c r="O36" s="22" t="str">
+      <c r="O36" s="22">
         <f t="shared" si="32"/>
-        <v/>
+        <v>27.85969204838575</v>
       </c>
       <c r="P36" s="22" t="str">
         <f t="shared" si="33"/>
@@ -6113,9 +6125,9 @@
         <f t="shared" si="31"/>
         <v>19.119396503794146</v>
       </c>
-      <c r="O37" s="22" t="str">
+      <c r="O37" s="22">
         <f t="shared" si="32"/>
-        <v/>
+        <v>22.943275804552972</v>
       </c>
       <c r="P37" s="22" t="str">
         <f t="shared" si="33"/>
@@ -6422,9 +6434,9 @@
         <f t="shared" si="31"/>
         <v>15.705218556688044</v>
       </c>
-      <c r="O38" s="22" t="str">
+      <c r="O38" s="22">
         <f t="shared" si="32"/>
-        <v/>
+        <v>18.846262268025654</v>
       </c>
       <c r="P38" s="22" t="str">
         <f t="shared" si="33"/>
@@ -6731,9 +6743,9 @@
         <f t="shared" si="96"/>
         <v>12.931034482758621</v>
       </c>
-      <c r="O39" s="23" t="str">
+      <c r="O39" s="23">
         <f t="shared" si="96"/>
-        <v/>
+        <v>15.517241379310345</v>
       </c>
       <c r="P39" s="23" t="str">
         <f t="shared" si="96"/>
@@ -7040,9 +7052,9 @@
         <f t="shared" si="99"/>
         <v>10.344827586206897</v>
       </c>
-      <c r="O40" s="24" t="str">
+      <c r="O40" s="24">
         <f t="shared" si="99"/>
-        <v/>
+        <v>12.413793103448278</v>
       </c>
       <c r="P40" s="24" t="str">
         <f t="shared" si="99"/>
@@ -7349,9 +7361,9 @@
         <f t="shared" si="102"/>
         <v>8.7931034482758612</v>
       </c>
-      <c r="O41" s="23" t="str">
+      <c r="O41" s="23">
         <f t="shared" si="102"/>
-        <v/>
+        <v>10.551724137931034</v>
       </c>
       <c r="P41" s="23" t="str">
         <f t="shared" si="102"/>
@@ -7658,9 +7670,9 @@
         <f t="shared" si="105"/>
         <v>7.2413793103448274</v>
       </c>
-      <c r="O42" s="23" t="str">
+      <c r="O42" s="23">
         <f t="shared" si="105"/>
-        <v/>
+        <v>8.6896551724137936</v>
       </c>
       <c r="P42" s="23" t="str">
         <f t="shared" si="105"/>
@@ -7967,9 +7979,9 @@
         <f t="shared" si="108"/>
         <v>5.9482758620689644</v>
       </c>
-      <c r="O43" s="23" t="str">
+      <c r="O43" s="23">
         <f t="shared" si="108"/>
-        <v/>
+        <v>7.137931034482758</v>
       </c>
       <c r="P43" s="23" t="str">
         <f t="shared" si="108"/>
@@ -8276,9 +8288,9 @@
         <f t="shared" ref="N44:N45" si="116">IF(N43&lt;&gt;"",N43/N$30,"")</f>
         <v>4.8975670098280419</v>
       </c>
-      <c r="O44" s="25" t="str">
+      <c r="O44" s="25">
         <f t="shared" ref="O44:O45" si="117">IF(O43&lt;&gt;"",O43/O$30,"")</f>
-        <v/>
+        <v>5.877080411793651</v>
       </c>
       <c r="P44" s="25" t="str">
         <f t="shared" ref="P44:P45" si="118">IF(P43&lt;&gt;"",P43/P$30,"")</f>
@@ -8585,9 +8597,9 @@
         <f t="shared" si="116"/>
         <v>4.0324563238082538</v>
       </c>
-      <c r="O45" s="26" t="str">
+      <c r="O45" s="26">
         <f t="shared" si="117"/>
-        <v/>
+        <v>4.8389475885699049</v>
       </c>
       <c r="P45" s="26" t="str">
         <f t="shared" si="118"/>
@@ -8905,7 +8917,7 @@
       </c>
       <c r="O48" s="6" t="str">
         <f t="shared" si="181"/>
-        <v/>
+        <v>Rollei RPX100</v>
       </c>
       <c r="P48" s="6" t="str">
         <f t="shared" si="181"/>
@@ -9167,55 +9179,55 @@
       </c>
       <c r="C49" s="29">
         <f t="shared" ref="C49:AH49" si="183">IF(C34&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C34,IF(OR($B$6=3,$B$6=4),C34*1.1,IF(OR($B$6=5,$B$6=6),C34*1.2,IF($B$6=7,C34*1.3,IF($B$6=8,C34*1.35,""))))),"")</f>
-        <v>42.904836201966617</v>
+        <v>44.555022209734567</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="183"/>
-        <v>44.384313312379263</v>
+        <v>46.091402285932311</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="183"/>
-        <v>46.901151315599648</v>
+        <v>48.70504175081502</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" si="183"/>
-        <v>35.50745064990339</v>
+        <v>36.87312182874583</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="183"/>
-        <v>47.360869978879244</v>
+        <v>49.182441901143832</v>
       </c>
       <c r="H49" s="22">
         <f t="shared" si="183"/>
-        <v>56.220130195680404</v>
+        <v>58.382442895514266</v>
       </c>
       <c r="I49" s="22">
         <f t="shared" si="183"/>
-        <v>71.01490129980678</v>
+        <v>73.746243657491661</v>
       </c>
       <c r="J49" s="22">
         <f t="shared" si="183"/>
-        <v>35.50745064990339</v>
+        <v>36.87312182874583</v>
       </c>
       <c r="K49" s="22">
         <f t="shared" si="183"/>
-        <v>53.261175974855114</v>
+        <v>55.309682743118778</v>
       </c>
       <c r="L49" s="22">
         <f t="shared" si="183"/>
-        <v>53.261175974855114</v>
+        <v>55.309682743118778</v>
       </c>
       <c r="M49" s="22">
         <f t="shared" si="183"/>
-        <v>35.50745064990339</v>
+        <v>36.87312182874583</v>
       </c>
       <c r="N49" s="22">
         <f t="shared" si="183"/>
-        <v>44.384313312379263</v>
-      </c>
-      <c r="O49" s="22" t="str">
+        <v>46.091402285932311</v>
+      </c>
+      <c r="O49" s="22">
         <f t="shared" si="183"/>
-        <v/>
+        <v>55.309682743118778</v>
       </c>
       <c r="P49" s="22" t="str">
         <f t="shared" si="183"/>
@@ -9477,55 +9489,55 @@
       </c>
       <c r="C50" s="29">
         <f t="shared" ref="C50:AH50" si="186">IF(C35&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C35,IF(OR($B$6=3,$B$6=4),C35*1.1,IF(OR($B$6=5,$B$6=6),C35*1.2,IF($B$6=7,C35*1.3,IF($B$6=8,C35*1.35,""))))),"")</f>
-        <v>34.323868961573289</v>
+        <v>35.644017767787652</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="186"/>
-        <v>35.507450649903411</v>
+        <v>36.873121828745852</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" si="186"/>
-        <v>36.658371143227313</v>
+        <v>38.068308494889905</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="186"/>
-        <v>28.405960519922719</v>
+        <v>29.498497462996667</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="186"/>
-        <v>37.888695983103403</v>
+        <v>39.345953520915074</v>
       </c>
       <c r="H50" s="22">
         <f t="shared" si="186"/>
-        <v>44.976104156544324</v>
+        <v>46.705954316411415</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="186"/>
-        <v>56.811921039845437</v>
+        <v>58.996994925993334</v>
       </c>
       <c r="J50" s="22">
         <f t="shared" si="186"/>
-        <v>28.405960519922719</v>
+        <v>29.498497462996667</v>
       </c>
       <c r="K50" s="22">
         <f t="shared" si="186"/>
-        <v>42.608940779884101</v>
+        <v>44.247746194495029</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" si="186"/>
-        <v>42.608940779884101</v>
+        <v>44.247746194495029</v>
       </c>
       <c r="M50" s="22">
         <f t="shared" si="186"/>
-        <v>28.405960519922719</v>
+        <v>29.498497462996667</v>
       </c>
       <c r="N50" s="22">
         <f t="shared" si="186"/>
-        <v>35.507450649903411</v>
-      </c>
-      <c r="O50" s="22" t="str">
+        <v>36.873121828745852</v>
+      </c>
+      <c r="O50" s="22">
         <f t="shared" si="186"/>
-        <v/>
+        <v>44.247746194495029</v>
       </c>
       <c r="P50" s="22" t="str">
         <f t="shared" si="186"/>
@@ -9787,55 +9799,55 @@
       </c>
       <c r="C51" s="29">
         <f t="shared" ref="C51:AH51" si="189">IF(C36&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C36,IF(OR($B$6=3,$B$6=4),C36*1.1,IF(OR($B$6=5,$B$6=6),C36*1.2,IF($B$6=7,C36*1.3,IF($B$6=8,C36*1.35,""))))),"")</f>
-        <v>29.175288617337298</v>
+        <v>30.2974151026195</v>
       </c>
       <c r="D51" s="22">
         <f t="shared" si="189"/>
-        <v>30.181333052417898</v>
+        <v>31.342153554433974</v>
       </c>
       <c r="E51" s="22">
         <f t="shared" si="189"/>
-        <v>28.916123157777704</v>
+        <v>30.028281740769156</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" si="189"/>
-        <v>24.145066441934308</v>
+        <v>25.073722843547166</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="189"/>
-        <v>32.688472459422471</v>
+        <v>33.945721400169489</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="189"/>
-        <v>38.229688533062671</v>
+        <v>39.700061168949695</v>
       </c>
       <c r="I51" s="22">
         <f t="shared" si="189"/>
-        <v>48.290132883868615</v>
+        <v>50.147445687094333</v>
       </c>
       <c r="J51" s="22">
         <f t="shared" si="189"/>
-        <v>24.145066441934308</v>
+        <v>25.073722843547166</v>
       </c>
       <c r="K51" s="22">
         <f t="shared" si="189"/>
-        <v>36.217599662901478</v>
+        <v>37.610584265320767</v>
       </c>
       <c r="L51" s="22">
         <f t="shared" si="189"/>
-        <v>36.217599662901478</v>
+        <v>37.610584265320767</v>
       </c>
       <c r="M51" s="22">
         <f t="shared" si="189"/>
-        <v>24.145066441934308</v>
+        <v>25.073722843547166</v>
       </c>
       <c r="N51" s="22">
         <f t="shared" si="189"/>
-        <v>30.181333052417898</v>
-      </c>
-      <c r="O51" s="22" t="str">
+        <v>31.342153554433974</v>
+      </c>
+      <c r="O51" s="22">
         <f t="shared" si="189"/>
-        <v/>
+        <v>37.610584265320767</v>
       </c>
       <c r="P51" s="22" t="str">
         <f t="shared" si="189"/>
@@ -10097,55 +10109,55 @@
       </c>
       <c r="C52" s="29">
         <f t="shared" ref="C52:AH52" si="192">IF(C37&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C37,IF(OR($B$6=3,$B$6=4),C37*1.1,IF(OR($B$6=5,$B$6=6),C37*1.2,IF($B$6=7,C37*1.3,IF($B$6=8,C37*1.35,""))))),"")</f>
-        <v>24.026708273101306</v>
+        <v>24.950812437451358</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="192"/>
-        <v>24.855215454932392</v>
+        <v>25.8111852801221</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="192"/>
-        <v>22.443069444353604</v>
+        <v>23.30626442298259</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="192"/>
-        <v>19.884172363945897</v>
+        <v>20.648948224097666</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="192"/>
-        <v>27.469304587749967</v>
+        <v>28.525816302663429</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="192"/>
-        <v>31.483272909581025</v>
+        <v>32.69416802148799</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="192"/>
-        <v>39.768344727891794</v>
+        <v>41.297896448195331</v>
       </c>
       <c r="J52" s="22">
         <f t="shared" si="192"/>
-        <v>19.884172363945897</v>
+        <v>20.648948224097666</v>
       </c>
       <c r="K52" s="22">
         <f t="shared" si="192"/>
-        <v>29.826258545918865</v>
+        <v>30.973422336146513</v>
       </c>
       <c r="L52" s="22">
         <f t="shared" si="192"/>
-        <v>29.826258545918865</v>
+        <v>30.973422336146513</v>
       </c>
       <c r="M52" s="22">
         <f t="shared" si="192"/>
-        <v>19.884172363945897</v>
+        <v>20.648948224097666</v>
       </c>
       <c r="N52" s="22">
         <f t="shared" si="192"/>
-        <v>24.855215454932392</v>
-      </c>
-      <c r="O52" s="22" t="str">
+        <v>25.8111852801221</v>
+      </c>
+      <c r="O52" s="22">
         <f t="shared" si="192"/>
-        <v/>
+        <v>30.973422336146513</v>
       </c>
       <c r="P52" s="22" t="str">
         <f t="shared" si="192"/>
@@ -10407,55 +10419,55 @@
       </c>
       <c r="C53" s="29">
         <f t="shared" ref="C53:AH53" si="195">IF(C38&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C38,IF(OR($B$6=3,$B$6=4),C38*1.1,IF(OR($B$6=5,$B$6=6),C38*1.2,IF($B$6=7,C38*1.3,IF($B$6=8,C38*1.35,""))))),"")</f>
-        <v>19.736224652904642</v>
+        <v>20.4953102164779</v>
       </c>
       <c r="D53" s="22">
         <f t="shared" si="195"/>
-        <v>20.416784123694459</v>
+        <v>21.202045051528859</v>
       </c>
       <c r="E53" s="22">
         <f t="shared" si="195"/>
-        <v>21.078563407355695</v>
+        <v>21.889277384561684</v>
       </c>
       <c r="F53" s="22">
         <f t="shared" si="195"/>
-        <v>16.333427298955559</v>
+        <v>16.961636041223084</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="195"/>
-        <v>21.786000190284454</v>
+        <v>22.623923274526167</v>
       </c>
       <c r="H53" s="22">
         <f t="shared" si="195"/>
-        <v>25.861259890012985</v>
+        <v>26.85592373193656</v>
       </c>
       <c r="I53" s="22">
         <f t="shared" si="195"/>
-        <v>32.666854597911119</v>
+        <v>33.923272082446168</v>
       </c>
       <c r="J53" s="22">
         <f t="shared" si="195"/>
-        <v>16.333427298955559</v>
+        <v>16.961636041223084</v>
       </c>
       <c r="K53" s="22">
         <f t="shared" si="195"/>
-        <v>24.500140948433351</v>
+        <v>25.442454061834635</v>
       </c>
       <c r="L53" s="22">
         <f t="shared" si="195"/>
-        <v>24.500140948433351</v>
+        <v>25.442454061834635</v>
       </c>
       <c r="M53" s="22">
         <f t="shared" si="195"/>
-        <v>16.333427298955559</v>
+        <v>16.961636041223084</v>
       </c>
       <c r="N53" s="22">
         <f t="shared" si="195"/>
-        <v>20.416784123694459</v>
-      </c>
-      <c r="O53" s="22" t="str">
+        <v>21.202045051528859</v>
+      </c>
+      <c r="O53" s="22">
         <f t="shared" si="195"/>
-        <v/>
+        <v>25.442454061834635</v>
       </c>
       <c r="P53" s="22" t="str">
         <f t="shared" si="195"/>
@@ -10717,55 +10729,55 @@
       </c>
       <c r="C54" s="30">
         <f t="shared" ref="C54:AH54" si="198">IF(C39&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C39,IF(OR($B$6=3,$B$6=4),C39*1.1,IF(OR($B$6=5,$B$6=6),C39*1.2,IF($B$6=7,C39*1.3,IF($B$6=8,C39*1.35,""))))),"")</f>
-        <v>16.25</v>
+        <v>16.875</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" si="198"/>
-        <v>16.810344827586206</v>
+        <v>17.456896551724139</v>
       </c>
       <c r="E54" s="23">
         <f t="shared" si="198"/>
-        <v>17.205882352941178</v>
+        <v>17.867647058823533</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="198"/>
-        <v>13.448275862068964</v>
+        <v>13.96551724137931</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="198"/>
-        <v>17.931034482758619</v>
+        <v>18.620689655172413</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="198"/>
-        <v>21.293103448275865</v>
+        <v>22.112068965517246</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="198"/>
-        <v>26.896551724137929</v>
+        <v>27.931034482758619</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="198"/>
-        <v>13.448275862068964</v>
+        <v>13.96551724137931</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="198"/>
-        <v>20.172413793103448</v>
+        <v>20.948275862068968</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="198"/>
-        <v>20.172413793103448</v>
+        <v>20.948275862068968</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="198"/>
-        <v>13.448275862068964</v>
+        <v>13.96551724137931</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="198"/>
-        <v>16.810344827586206</v>
-      </c>
-      <c r="O54" s="23" t="str">
+        <v>17.456896551724139</v>
+      </c>
+      <c r="O54" s="23">
         <f t="shared" si="198"/>
-        <v/>
+        <v>20.948275862068968</v>
       </c>
       <c r="P54" s="23" t="str">
         <f t="shared" si="198"/>
@@ -11027,55 +11039,55 @@
       </c>
       <c r="C55" s="31">
         <f t="shared" ref="C55:AH55" si="201">IF(C40&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C40,IF(OR($B$6=3,$B$6=4),C40*1.1,IF(OR($B$6=5,$B$6=6),C40*1.2,IF($B$6=7,C40*1.3,IF($B$6=8,C40*1.35,""))))),"")</f>
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="D55" s="24">
         <f t="shared" si="201"/>
-        <v>13.448275862068966</v>
+        <v>13.965517241379311</v>
       </c>
       <c r="E55" s="24">
         <f t="shared" si="201"/>
-        <v>13.448275862068966</v>
+        <v>13.965517241379311</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="201"/>
-        <v>10.758620689655174</v>
+        <v>11.17241379310345</v>
       </c>
       <c r="G55" s="24">
         <f t="shared" si="201"/>
-        <v>14.344827586206899</v>
+        <v>14.896551724137932</v>
       </c>
       <c r="H55" s="24">
         <f t="shared" si="201"/>
-        <v>17.03448275862069</v>
+        <v>17.689655172413794</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" si="201"/>
-        <v>21.517241379310349</v>
+        <v>22.3448275862069</v>
       </c>
       <c r="J55" s="24">
         <f t="shared" si="201"/>
-        <v>10.758620689655174</v>
+        <v>11.17241379310345</v>
       </c>
       <c r="K55" s="24">
         <f t="shared" si="201"/>
-        <v>16.137931034482762</v>
+        <v>16.758620689655174</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" si="201"/>
-        <v>16.137931034482762</v>
+        <v>16.758620689655174</v>
       </c>
       <c r="M55" s="24">
         <f t="shared" si="201"/>
-        <v>10.758620689655174</v>
+        <v>11.17241379310345</v>
       </c>
       <c r="N55" s="24">
         <f t="shared" si="201"/>
-        <v>13.448275862068966</v>
-      </c>
-      <c r="O55" s="24" t="str">
+        <v>13.965517241379311</v>
+      </c>
+      <c r="O55" s="24">
         <f t="shared" si="201"/>
-        <v/>
+        <v>16.758620689655174</v>
       </c>
       <c r="P55" s="24" t="str">
         <f t="shared" si="201"/>
@@ -11337,55 +11349,55 @@
       </c>
       <c r="C56" s="30">
         <f t="shared" ref="C56:AH56" si="204">IF(C41&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C41,IF(OR($B$6=3,$B$6=4),C41*1.1,IF(OR($B$6=5,$B$6=6),C41*1.2,IF($B$6=7,C41*1.3,IF($B$6=8,C41*1.35,""))))),"")</f>
-        <v>11.05</v>
+        <v>11.475000000000001</v>
       </c>
       <c r="D56" s="23">
         <f t="shared" si="204"/>
-        <v>11.431034482758619</v>
+        <v>11.870689655172413</v>
       </c>
       <c r="E56" s="23">
         <f t="shared" si="204"/>
-        <v>10.608000000000001</v>
+        <v>11.016000000000002</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="204"/>
-        <v>9.1448275862068975</v>
+        <v>9.496551724137932</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="204"/>
-        <v>12.376000000000003</v>
+        <v>12.852000000000002</v>
       </c>
       <c r="H56" s="23">
         <f t="shared" si="204"/>
-        <v>14.479310344827585</v>
+        <v>15.036206896551723</v>
       </c>
       <c r="I56" s="23">
         <f t="shared" si="204"/>
-        <v>18.289655172413795</v>
+        <v>18.993103448275864</v>
       </c>
       <c r="J56" s="23">
         <f t="shared" si="204"/>
-        <v>9.1448275862068975</v>
+        <v>9.496551724137932</v>
       </c>
       <c r="K56" s="23">
         <f t="shared" si="204"/>
-        <v>13.717241379310344</v>
+        <v>14.244827586206897</v>
       </c>
       <c r="L56" s="23">
         <f t="shared" si="204"/>
-        <v>13.717241379310344</v>
+        <v>14.244827586206897</v>
       </c>
       <c r="M56" s="23">
         <f t="shared" si="204"/>
-        <v>9.1448275862068975</v>
+        <v>9.496551724137932</v>
       </c>
       <c r="N56" s="23">
         <f t="shared" si="204"/>
-        <v>11.431034482758619</v>
-      </c>
-      <c r="O56" s="23" t="str">
+        <v>11.870689655172413</v>
+      </c>
+      <c r="O56" s="23">
         <f t="shared" si="204"/>
-        <v/>
+        <v>14.244827586206897</v>
       </c>
       <c r="P56" s="23" t="str">
         <f t="shared" si="204"/>
@@ -11647,55 +11659,55 @@
       </c>
       <c r="C57" s="30">
         <f t="shared" ref="C57:AH57" si="207">IF(C42&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C42,IF(OR($B$6=3,$B$6=4),C42*1.1,IF(OR($B$6=5,$B$6=6),C42*1.2,IF($B$6=7,C42*1.3,IF($B$6=8,C42*1.35,""))))),"")</f>
-        <v>9.1</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="D57" s="23">
         <f t="shared" si="207"/>
-        <v>9.4137931034482758</v>
+        <v>9.7758620689655178</v>
       </c>
       <c r="E57" s="23">
         <f t="shared" si="207"/>
-        <v>8.2333333333333325</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="207"/>
-        <v>7.5310344827586206</v>
+        <v>7.8206896551724148</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="207"/>
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="H57" s="23">
         <f t="shared" si="207"/>
-        <v>11.924137931034483</v>
+        <v>12.382758620689657</v>
       </c>
       <c r="I57" s="23">
         <f t="shared" si="207"/>
-        <v>15.062068965517241</v>
+        <v>15.64137931034483</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="207"/>
-        <v>7.5310344827586206</v>
+        <v>7.8206896551724148</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="207"/>
-        <v>11.296551724137933</v>
+        <v>11.731034482758622</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="207"/>
-        <v>11.296551724137933</v>
+        <v>11.731034482758622</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="207"/>
-        <v>7.5310344827586206</v>
+        <v>7.8206896551724148</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="207"/>
-        <v>9.4137931034482758</v>
-      </c>
-      <c r="O57" s="23" t="str">
+        <v>9.7758620689655178</v>
+      </c>
+      <c r="O57" s="23">
         <f t="shared" si="207"/>
-        <v/>
+        <v>11.731034482758622</v>
       </c>
       <c r="P57" s="23" t="str">
         <f t="shared" si="207"/>
@@ -11957,55 +11969,55 @@
       </c>
       <c r="C58" s="30">
         <f t="shared" ref="C58:AH58" si="210">IF(C43&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C43,IF(OR($B$6=3,$B$6=4),C43*1.1,IF(OR($B$6=5,$B$6=6),C43*1.2,IF($B$6=7,C43*1.3,IF($B$6=8,C43*1.35,""))))),"")</f>
-        <v>7.4750000000000005</v>
+        <v>7.7625000000000002</v>
       </c>
       <c r="D58" s="23">
         <f t="shared" si="210"/>
-        <v>7.7327586206896539</v>
+        <v>8.0301724137931032</v>
       </c>
       <c r="E58" s="23">
         <f t="shared" si="210"/>
-        <v>7.7327586206896539</v>
+        <v>8.0301724137931032</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="210"/>
-        <v>6.1862068965517247</v>
+        <v>6.4241379310344833</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="210"/>
-        <v>8.2482758620689651</v>
+        <v>8.5655172413793093</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="210"/>
-        <v>9.7948275862068961</v>
+        <v>10.171551724137931</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="210"/>
-        <v>12.372413793103449</v>
+        <v>12.848275862068967</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="210"/>
-        <v>6.1862068965517247</v>
+        <v>6.4241379310344833</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="210"/>
-        <v>9.2793103448275858</v>
+        <v>9.6362068965517231</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="210"/>
-        <v>9.2793103448275858</v>
+        <v>9.6362068965517231</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="210"/>
-        <v>6.1862068965517247</v>
+        <v>6.4241379310344833</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="210"/>
-        <v>7.7327586206896539</v>
-      </c>
-      <c r="O58" s="23" t="str">
+        <v>8.0301724137931032</v>
+      </c>
+      <c r="O58" s="23">
         <f t="shared" si="210"/>
-        <v/>
+        <v>9.6362068965517231</v>
       </c>
       <c r="P58" s="23" t="str">
         <f t="shared" si="210"/>
@@ -12267,55 +12279,55 @@
       </c>
       <c r="C59" s="32">
         <f t="shared" ref="C59:AH59" si="213">IF(C44&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C44,IF(OR($B$6=3,$B$6=4),C44*1.1,IF(OR($B$6=5,$B$6=6),C44*1.2,IF($B$6=7,C44*1.3,IF($B$6=8,C44*1.35,""))))),"")</f>
-        <v>6.1546092090172406</v>
+        <v>6.3913249478255958</v>
       </c>
       <c r="D59" s="25">
         <f t="shared" si="213"/>
-        <v>6.3668371127764551</v>
+        <v>6.6117154632678572</v>
       </c>
       <c r="E59" s="25">
         <f t="shared" si="213"/>
-        <v>6.312049475100773</v>
+        <v>6.5548206087584955</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="213"/>
-        <v>5.0934696902211654</v>
+        <v>5.2893723706142879</v>
       </c>
       <c r="G59" s="25">
         <f t="shared" si="213"/>
-        <v>6.788768824670294</v>
+        <v>7.0498753179268441</v>
       </c>
       <c r="H59" s="25">
         <f t="shared" si="213"/>
-        <v>8.0646603428501784</v>
+        <v>8.3748395868059546</v>
       </c>
       <c r="I59" s="25">
         <f t="shared" si="213"/>
-        <v>10.186939380442331</v>
+        <v>10.578744741228576</v>
       </c>
       <c r="J59" s="25">
         <f t="shared" si="213"/>
-        <v>5.0934696902211654</v>
+        <v>5.2893723706142879</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="213"/>
-        <v>7.6402045353317467</v>
+        <v>7.9340585559214292</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="213"/>
-        <v>7.6402045353317467</v>
+        <v>7.9340585559214292</v>
       </c>
       <c r="M59" s="25">
         <f t="shared" si="213"/>
-        <v>5.0934696902211654</v>
+        <v>5.2893723706142879</v>
       </c>
       <c r="N59" s="25">
         <f t="shared" si="213"/>
-        <v>6.3668371127764551</v>
-      </c>
-      <c r="O59" s="25" t="str">
+        <v>6.6117154632678572</v>
+      </c>
+      <c r="O59" s="25">
         <f t="shared" si="213"/>
-        <v/>
+        <v>7.9340585559214292</v>
       </c>
       <c r="P59" s="25" t="str">
         <f t="shared" si="213"/>
@@ -12577,55 +12589,55 @@
       </c>
       <c r="C60" s="33">
         <f t="shared" ref="C60:AH60" si="216">IF(C45&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C45,IF(OR($B$6=3,$B$6=4),C45*1.1,IF(OR($B$6=5,$B$6=6),C45*1.2,IF($B$6=7,C45*1.3,IF($B$6=8,C45*1.35,""))))),"")</f>
-        <v>5.06745344691904</v>
+        <v>5.2623555025697719</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="216"/>
-        <v>5.24219322095073</v>
+        <v>5.4438160371411426</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="216"/>
-        <v>5.1523615995874179</v>
+        <v>5.3505293534177039</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="216"/>
-        <v>4.1937545767605862</v>
+        <v>4.3550528297129167</v>
       </c>
       <c r="G60" s="26">
         <f t="shared" si="216"/>
-        <v>5.587517067264395</v>
+        <v>5.8024215698514876</v>
       </c>
       <c r="H60" s="26">
         <f t="shared" si="216"/>
-        <v>6.6401114132042602</v>
+        <v>6.895500313712116</v>
       </c>
       <c r="I60" s="26">
         <f t="shared" si="216"/>
-        <v>8.3875091535211723</v>
+        <v>8.7101056594258335</v>
       </c>
       <c r="J60" s="26">
         <f t="shared" si="216"/>
-        <v>4.1937545767605862</v>
+        <v>4.3550528297129167</v>
       </c>
       <c r="K60" s="26">
         <f t="shared" si="216"/>
-        <v>6.2906318651408766</v>
+        <v>6.532579244569372</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="216"/>
-        <v>6.2906318651408766</v>
+        <v>6.532579244569372</v>
       </c>
       <c r="M60" s="26">
         <f t="shared" si="216"/>
-        <v>4.1937545767605862</v>
+        <v>4.3550528297129167</v>
       </c>
       <c r="N60" s="26">
         <f t="shared" si="216"/>
-        <v>5.24219322095073</v>
-      </c>
-      <c r="O60" s="26" t="str">
+        <v>5.4438160371411426</v>
+      </c>
+      <c r="O60" s="26">
         <f t="shared" si="216"/>
-        <v/>
+        <v>6.532579244569372</v>
       </c>
       <c r="P60" s="26" t="str">
         <f t="shared" si="216"/>

--- a/developingCalcData.xlsx
+++ b/developingCalcData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>D-76</t>
     <phoneticPr fontId="1"/>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>Rollei RPX100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BERGGER_Pancro400</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1178,8 +1182,8 @@
   <dimension ref="A1:BZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E60" sqref="E60"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E6" sqref="E6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1361,38 +1365,20 @@
       <c r="A6" s="1"/>
       <c r="B6" s="52">
         <f>IF(D6="","",IF(SUM(D6:W6)&lt;=36,1,IF(SUM(D6:W6)&lt;=72,2,IF(SUM(D6:W6)&lt;=108,3,IF(SUM(D6:W6)&lt;=144,4,IF(SUM(D6:W6)&lt;=180,5,IF(SUM(D6:W6)&lt;=216,6,IF(SUM(D6:W6)&lt;=242,7,IF(SUM(D6:W6)&lt;=278,8,"ERR")))))))))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" s="58">
         <v>36</v>
       </c>
-      <c r="E6" s="11">
-        <v>36</v>
-      </c>
-      <c r="F6" s="11">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11">
-        <v>20</v>
-      </c>
-      <c r="H6" s="11">
-        <v>25</v>
-      </c>
-      <c r="I6" s="11">
-        <v>36</v>
-      </c>
-      <c r="J6" s="11">
-        <v>36</v>
-      </c>
-      <c r="K6" s="11">
-        <v>24</v>
-      </c>
-      <c r="L6" s="11">
-        <v>20</v>
-      </c>
-      <c r="M6" s="11">
-        <v>20</v>
-      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1569,7 +1555,9 @@
       <c r="O17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="17"/>
+      <c r="P17" s="17" t="s">
+        <v>39</v>
+      </c>
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
@@ -1688,9 +1676,9 @@
         <f t="shared" si="1"/>
         <v>10.551724137931034</v>
       </c>
-      <c r="P18" s="49" t="str">
+      <c r="P18" s="49">
         <f t="shared" si="1"/>
-        <v/>
+        <v>10.551724137931034</v>
       </c>
       <c r="Q18" s="49" t="str">
         <f t="shared" si="1"/>
@@ -1985,7 +1973,9 @@
       <c r="O19" s="50">
         <v>9</v>
       </c>
-      <c r="P19" s="50"/>
+      <c r="P19" s="50">
+        <v>9</v>
+      </c>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="50"/>
@@ -2103,9 +2093,9 @@
         <f t="shared" si="3"/>
         <v>7.7586206896551717</v>
       </c>
-      <c r="P20" s="49" t="str">
+      <c r="P20" s="49">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.7586206896551717</v>
       </c>
       <c r="Q20" s="49" t="str">
         <f t="shared" si="3"/>
@@ -2410,9 +2400,9 @@
         <f t="shared" si="5"/>
         <v>6.5172413793103452</v>
       </c>
-      <c r="P21" s="49" t="str">
+      <c r="P21" s="49">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6.5172413793103452</v>
       </c>
       <c r="Q21" s="49" t="str">
         <f t="shared" si="5"/>
@@ -2719,9 +2709,9 @@
         <f t="shared" si="5"/>
         <v>5.5862068965517242</v>
       </c>
-      <c r="P22" s="51" t="str">
+      <c r="P22" s="51">
         <f t="shared" si="5"/>
-        <v/>
+        <v>5.5862068965517242</v>
       </c>
       <c r="Q22" s="51" t="str">
         <f t="shared" si="5"/>
@@ -3035,7 +3025,7 @@
       </c>
       <c r="P25" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>BERGGER_Pancro400</v>
       </c>
       <c r="Q25" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3342,9 +3332,9 @@
         <f t="shared" si="11"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="P26" s="27" t="str">
+      <c r="P26" s="27">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1.2499999999999998</v>
       </c>
       <c r="Q26" s="27" t="str">
         <f t="shared" si="11"/>
@@ -3651,9 +3641,9 @@
         <f t="shared" si="14"/>
         <v>1.1764705882352944</v>
       </c>
-      <c r="P27" s="27" t="str">
+      <c r="P27" s="27">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1.1764705882352944</v>
       </c>
       <c r="Q27" s="27" t="str">
         <f t="shared" si="14"/>
@@ -3960,9 +3950,9 @@
         <f t="shared" si="16"/>
         <v>1.2142857142857142</v>
       </c>
-      <c r="P28" s="27" t="str">
+      <c r="P28" s="27">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1.2142857142857142</v>
       </c>
       <c r="Q28" s="27" t="str">
         <f t="shared" si="16"/>
@@ -4269,9 +4259,9 @@
         <f t="shared" si="18"/>
         <v>1.2173913043478262</v>
       </c>
-      <c r="P29" s="27" t="str">
+      <c r="P29" s="27">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1.2173913043478262</v>
       </c>
       <c r="Q29" s="27" t="str">
         <f t="shared" si="18"/>
@@ -4578,9 +4568,9 @@
         <f t="shared" si="20"/>
         <v>1.2145369017172087</v>
       </c>
-      <c r="P30" s="37" t="str">
+      <c r="P30" s="37">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1.2145369017172087</v>
       </c>
       <c r="Q30" s="37" t="str">
         <f t="shared" si="20"/>
@@ -4895,7 +4885,7 @@
       </c>
       <c r="P33" s="6" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>BERGGER_Pancro400</v>
       </c>
       <c r="Q33" s="6" t="str">
         <f t="shared" si="23"/>
@@ -5202,9 +5192,9 @@
         <f t="shared" ref="O34:O38" si="32">IF(O35&lt;&gt;"",O35*O26,"")</f>
         <v>40.970135365273165</v>
       </c>
-      <c r="P34" s="22" t="str">
+      <c r="P34" s="22">
         <f t="shared" ref="P34:P38" si="33">IF(P35&lt;&gt;"",P35*P26,"")</f>
-        <v/>
+        <v>40.970135365273165</v>
       </c>
       <c r="Q34" s="22" t="str">
         <f t="shared" ref="Q34:Q38" si="34">IF(Q35&lt;&gt;"",Q35*Q26,"")</f>
@@ -5511,9 +5501,9 @@
         <f t="shared" si="32"/>
         <v>32.776108292218538</v>
       </c>
-      <c r="P35" s="22" t="str">
+      <c r="P35" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>32.776108292218538</v>
       </c>
       <c r="Q35" s="22" t="str">
         <f t="shared" si="34"/>
@@ -5820,9 +5810,9 @@
         <f t="shared" si="32"/>
         <v>27.85969204838575</v>
       </c>
-      <c r="P36" s="22" t="str">
+      <c r="P36" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>27.85969204838575</v>
       </c>
       <c r="Q36" s="22" t="str">
         <f t="shared" si="34"/>
@@ -6129,9 +6119,9 @@
         <f t="shared" si="32"/>
         <v>22.943275804552972</v>
       </c>
-      <c r="P37" s="22" t="str">
+      <c r="P37" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>22.943275804552972</v>
       </c>
       <c r="Q37" s="22" t="str">
         <f t="shared" si="34"/>
@@ -6438,9 +6428,9 @@
         <f t="shared" si="32"/>
         <v>18.846262268025654</v>
       </c>
-      <c r="P38" s="22" t="str">
+      <c r="P38" s="22">
         <f t="shared" si="33"/>
-        <v/>
+        <v>18.846262268025654</v>
       </c>
       <c r="Q38" s="22" t="str">
         <f t="shared" si="34"/>
@@ -6747,9 +6737,9 @@
         <f t="shared" si="96"/>
         <v>15.517241379310345</v>
       </c>
-      <c r="P39" s="23" t="str">
+      <c r="P39" s="23">
         <f t="shared" si="96"/>
-        <v/>
+        <v>15.517241379310345</v>
       </c>
       <c r="Q39" s="23" t="str">
         <f t="shared" si="96"/>
@@ -7056,9 +7046,9 @@
         <f t="shared" si="99"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="P40" s="24" t="str">
+      <c r="P40" s="24">
         <f t="shared" si="99"/>
-        <v/>
+        <v>12.413793103448278</v>
       </c>
       <c r="Q40" s="24" t="str">
         <f t="shared" si="99"/>
@@ -7365,9 +7355,9 @@
         <f t="shared" si="102"/>
         <v>10.551724137931034</v>
       </c>
-      <c r="P41" s="23" t="str">
+      <c r="P41" s="23">
         <f t="shared" si="102"/>
-        <v/>
+        <v>10.551724137931034</v>
       </c>
       <c r="Q41" s="23" t="str">
         <f t="shared" si="102"/>
@@ -7674,9 +7664,9 @@
         <f t="shared" si="105"/>
         <v>8.6896551724137936</v>
       </c>
-      <c r="P42" s="23" t="str">
+      <c r="P42" s="23">
         <f t="shared" si="105"/>
-        <v/>
+        <v>8.6896551724137936</v>
       </c>
       <c r="Q42" s="23" t="str">
         <f t="shared" si="105"/>
@@ -7983,9 +7973,9 @@
         <f t="shared" si="108"/>
         <v>7.137931034482758</v>
       </c>
-      <c r="P43" s="23" t="str">
+      <c r="P43" s="23">
         <f t="shared" si="108"/>
-        <v/>
+        <v>7.137931034482758</v>
       </c>
       <c r="Q43" s="23" t="str">
         <f t="shared" si="108"/>
@@ -8292,9 +8282,9 @@
         <f t="shared" ref="O44:O45" si="117">IF(O43&lt;&gt;"",O43/O$30,"")</f>
         <v>5.877080411793651</v>
       </c>
-      <c r="P44" s="25" t="str">
+      <c r="P44" s="25">
         <f t="shared" ref="P44:P45" si="118">IF(P43&lt;&gt;"",P43/P$30,"")</f>
-        <v/>
+        <v>5.877080411793651</v>
       </c>
       <c r="Q44" s="25" t="str">
         <f t="shared" ref="Q44:Q45" si="119">IF(Q43&lt;&gt;"",Q43/Q$30,"")</f>
@@ -8601,9 +8591,9 @@
         <f t="shared" si="117"/>
         <v>4.8389475885699049</v>
       </c>
-      <c r="P45" s="26" t="str">
+      <c r="P45" s="26">
         <f t="shared" si="118"/>
-        <v/>
+        <v>4.8389475885699049</v>
       </c>
       <c r="Q45" s="26" t="str">
         <f t="shared" si="119"/>
@@ -8921,7 +8911,7 @@
       </c>
       <c r="P48" s="6" t="str">
         <f t="shared" si="181"/>
-        <v/>
+        <v>BERGGER_Pancro400</v>
       </c>
       <c r="Q48" s="6" t="str">
         <f t="shared" si="181"/>
@@ -9179,59 +9169,59 @@
       </c>
       <c r="C49" s="29">
         <f t="shared" ref="C49:AH49" si="183">IF(C34&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C34,IF(OR($B$6=3,$B$6=4),C34*1.1,IF(OR($B$6=5,$B$6=6),C34*1.2,IF($B$6=7,C34*1.3,IF($B$6=8,C34*1.35,""))))),"")</f>
-        <v>44.555022209734567</v>
+        <v>33.003720155358934</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="183"/>
-        <v>46.091402285932311</v>
+        <v>34.141779471060971</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="183"/>
-        <v>48.70504175081502</v>
+        <v>36.077808704307422</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" si="183"/>
-        <v>36.87312182874583</v>
+        <v>27.313423576848759</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="183"/>
-        <v>49.182441901143832</v>
+        <v>36.431438445291725</v>
       </c>
       <c r="H49" s="22">
         <f t="shared" si="183"/>
-        <v>58.382442895514266</v>
+        <v>43.246253996677233</v>
       </c>
       <c r="I49" s="22">
         <f t="shared" si="183"/>
-        <v>73.746243657491661</v>
+        <v>54.626847153697518</v>
       </c>
       <c r="J49" s="22">
         <f t="shared" si="183"/>
-        <v>36.87312182874583</v>
+        <v>27.313423576848759</v>
       </c>
       <c r="K49" s="22">
         <f t="shared" si="183"/>
-        <v>55.309682743118778</v>
+        <v>40.970135365273165</v>
       </c>
       <c r="L49" s="22">
         <f t="shared" si="183"/>
-        <v>55.309682743118778</v>
+        <v>40.970135365273165</v>
       </c>
       <c r="M49" s="22">
         <f t="shared" si="183"/>
-        <v>36.87312182874583</v>
+        <v>27.313423576848759</v>
       </c>
       <c r="N49" s="22">
         <f t="shared" si="183"/>
-        <v>46.091402285932311</v>
+        <v>34.141779471060971</v>
       </c>
       <c r="O49" s="22">
         <f t="shared" si="183"/>
-        <v>55.309682743118778</v>
-      </c>
-      <c r="P49" s="22" t="str">
+        <v>40.970135365273165</v>
+      </c>
+      <c r="P49" s="22">
         <f t="shared" si="183"/>
-        <v/>
+        <v>40.970135365273165</v>
       </c>
       <c r="Q49" s="22" t="str">
         <f t="shared" si="183"/>
@@ -9489,59 +9479,59 @@
       </c>
       <c r="C50" s="29">
         <f t="shared" ref="C50:AH50" si="186">IF(C35&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C35,IF(OR($B$6=3,$B$6=4),C35*1.1,IF(OR($B$6=5,$B$6=6),C35*1.2,IF($B$6=7,C35*1.3,IF($B$6=8,C35*1.35,""))))),"")</f>
-        <v>35.644017767787652</v>
+        <v>26.402976124287147</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="186"/>
-        <v>36.873121828745852</v>
+        <v>27.313423576848777</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" si="186"/>
-        <v>38.068308494889905</v>
+        <v>28.198747033251777</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="186"/>
-        <v>29.498497462996667</v>
+        <v>21.850738861479012</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="186"/>
-        <v>39.345953520915074</v>
+        <v>29.145150756233388</v>
       </c>
       <c r="H50" s="22">
         <f t="shared" si="186"/>
-        <v>46.705954316411415</v>
+        <v>34.597003197341785</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="186"/>
-        <v>58.996994925993334</v>
+        <v>43.701477722958025</v>
       </c>
       <c r="J50" s="22">
         <f t="shared" si="186"/>
-        <v>29.498497462996667</v>
+        <v>21.850738861479012</v>
       </c>
       <c r="K50" s="22">
         <f t="shared" si="186"/>
-        <v>44.247746194495029</v>
+        <v>32.776108292218538</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" si="186"/>
-        <v>44.247746194495029</v>
+        <v>32.776108292218538</v>
       </c>
       <c r="M50" s="22">
         <f t="shared" si="186"/>
-        <v>29.498497462996667</v>
+        <v>21.850738861479012</v>
       </c>
       <c r="N50" s="22">
         <f t="shared" si="186"/>
-        <v>36.873121828745852</v>
+        <v>27.313423576848777</v>
       </c>
       <c r="O50" s="22">
         <f t="shared" si="186"/>
-        <v>44.247746194495029</v>
-      </c>
-      <c r="P50" s="22" t="str">
+        <v>32.776108292218538</v>
+      </c>
+      <c r="P50" s="22">
         <f t="shared" si="186"/>
-        <v/>
+        <v>32.776108292218538</v>
       </c>
       <c r="Q50" s="22" t="str">
         <f t="shared" si="186"/>
@@ -9799,59 +9789,59 @@
       </c>
       <c r="C51" s="29">
         <f t="shared" ref="C51:AH51" si="189">IF(C36&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C36,IF(OR($B$6=3,$B$6=4),C36*1.1,IF(OR($B$6=5,$B$6=6),C36*1.2,IF($B$6=7,C36*1.3,IF($B$6=8,C36*1.35,""))))),"")</f>
-        <v>30.2974151026195</v>
+        <v>22.442529705644073</v>
       </c>
       <c r="D51" s="22">
         <f t="shared" si="189"/>
-        <v>31.342153554433974</v>
+        <v>23.21641004032146</v>
       </c>
       <c r="E51" s="22">
         <f t="shared" si="189"/>
-        <v>30.028281740769156</v>
+        <v>22.243171659829002</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" si="189"/>
-        <v>25.073722843547166</v>
+        <v>18.573128032257159</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="189"/>
-        <v>33.945721400169489</v>
+        <v>25.144978814940359</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="189"/>
-        <v>39.700061168949695</v>
+        <v>29.407452717740515</v>
       </c>
       <c r="I51" s="22">
         <f t="shared" si="189"/>
-        <v>50.147445687094333</v>
+        <v>37.146256064514318</v>
       </c>
       <c r="J51" s="22">
         <f t="shared" si="189"/>
-        <v>25.073722843547166</v>
+        <v>18.573128032257159</v>
       </c>
       <c r="K51" s="22">
         <f t="shared" si="189"/>
-        <v>37.610584265320767</v>
+        <v>27.85969204838575</v>
       </c>
       <c r="L51" s="22">
         <f t="shared" si="189"/>
-        <v>37.610584265320767</v>
+        <v>27.85969204838575</v>
       </c>
       <c r="M51" s="22">
         <f t="shared" si="189"/>
-        <v>25.073722843547166</v>
+        <v>18.573128032257159</v>
       </c>
       <c r="N51" s="22">
         <f t="shared" si="189"/>
-        <v>31.342153554433974</v>
+        <v>23.21641004032146</v>
       </c>
       <c r="O51" s="22">
         <f t="shared" si="189"/>
-        <v>37.610584265320767</v>
-      </c>
-      <c r="P51" s="22" t="str">
+        <v>27.85969204838575</v>
+      </c>
+      <c r="P51" s="22">
         <f t="shared" si="189"/>
-        <v/>
+        <v>27.85969204838575</v>
       </c>
       <c r="Q51" s="22" t="str">
         <f t="shared" si="189"/>
@@ -10109,59 +10099,59 @@
       </c>
       <c r="C52" s="29">
         <f t="shared" ref="C52:AH52" si="192">IF(C37&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C37,IF(OR($B$6=3,$B$6=4),C37*1.1,IF(OR($B$6=5,$B$6=6),C37*1.2,IF($B$6=7,C37*1.3,IF($B$6=8,C37*1.35,""))))),"")</f>
-        <v>24.950812437451358</v>
+        <v>18.482083287001004</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="192"/>
-        <v>25.8111852801221</v>
+        <v>19.119396503794146</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="192"/>
-        <v>23.30626442298259</v>
+        <v>17.263899572579696</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="192"/>
-        <v>20.648948224097666</v>
+        <v>15.295517203035306</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="192"/>
-        <v>28.525816302663429</v>
+        <v>21.130234298269205</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="192"/>
-        <v>32.69416802148799</v>
+        <v>24.217902238139249</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="192"/>
-        <v>41.297896448195331</v>
+        <v>30.591034406070612</v>
       </c>
       <c r="J52" s="22">
         <f t="shared" si="192"/>
-        <v>20.648948224097666</v>
+        <v>15.295517203035306</v>
       </c>
       <c r="K52" s="22">
         <f t="shared" si="192"/>
-        <v>30.973422336146513</v>
+        <v>22.943275804552972</v>
       </c>
       <c r="L52" s="22">
         <f t="shared" si="192"/>
-        <v>30.973422336146513</v>
+        <v>22.943275804552972</v>
       </c>
       <c r="M52" s="22">
         <f t="shared" si="192"/>
-        <v>20.648948224097666</v>
+        <v>15.295517203035306</v>
       </c>
       <c r="N52" s="22">
         <f t="shared" si="192"/>
-        <v>25.8111852801221</v>
+        <v>19.119396503794146</v>
       </c>
       <c r="O52" s="22">
         <f t="shared" si="192"/>
-        <v>30.973422336146513</v>
-      </c>
-      <c r="P52" s="22" t="str">
+        <v>22.943275804552972</v>
+      </c>
+      <c r="P52" s="22">
         <f t="shared" si="192"/>
-        <v/>
+        <v>22.943275804552972</v>
       </c>
       <c r="Q52" s="22" t="str">
         <f t="shared" si="192"/>
@@ -10419,59 +10409,59 @@
       </c>
       <c r="C53" s="29">
         <f t="shared" ref="C53:AH53" si="195">IF(C38&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C38,IF(OR($B$6=3,$B$6=4),C38*1.1,IF(OR($B$6=5,$B$6=6),C38*1.2,IF($B$6=7,C38*1.3,IF($B$6=8,C38*1.35,""))))),"")</f>
-        <v>20.4953102164779</v>
+        <v>15.18171127146511</v>
       </c>
       <c r="D53" s="22">
         <f t="shared" si="195"/>
-        <v>21.202045051528859</v>
+        <v>15.705218556688044</v>
       </c>
       <c r="E53" s="22">
         <f t="shared" si="195"/>
-        <v>21.889277384561684</v>
+        <v>16.214279544119766</v>
       </c>
       <c r="F53" s="22">
         <f t="shared" si="195"/>
-        <v>16.961636041223084</v>
+        <v>12.564174845350431</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="195"/>
-        <v>22.623923274526167</v>
+        <v>16.758461684834195</v>
       </c>
       <c r="H53" s="22">
         <f t="shared" si="195"/>
-        <v>26.85592373193656</v>
+        <v>19.893276838471525</v>
       </c>
       <c r="I53" s="22">
         <f t="shared" si="195"/>
-        <v>33.923272082446168</v>
+        <v>25.128349690700862</v>
       </c>
       <c r="J53" s="22">
         <f t="shared" si="195"/>
-        <v>16.961636041223084</v>
+        <v>12.564174845350431</v>
       </c>
       <c r="K53" s="22">
         <f t="shared" si="195"/>
-        <v>25.442454061834635</v>
+        <v>18.846262268025654</v>
       </c>
       <c r="L53" s="22">
         <f t="shared" si="195"/>
-        <v>25.442454061834635</v>
+        <v>18.846262268025654</v>
       </c>
       <c r="M53" s="22">
         <f t="shared" si="195"/>
-        <v>16.961636041223084</v>
+        <v>12.564174845350431</v>
       </c>
       <c r="N53" s="22">
         <f t="shared" si="195"/>
-        <v>21.202045051528859</v>
+        <v>15.705218556688044</v>
       </c>
       <c r="O53" s="22">
         <f t="shared" si="195"/>
-        <v>25.442454061834635</v>
-      </c>
-      <c r="P53" s="22" t="str">
+        <v>18.846262268025654</v>
+      </c>
+      <c r="P53" s="22">
         <f t="shared" si="195"/>
-        <v/>
+        <v>18.846262268025654</v>
       </c>
       <c r="Q53" s="22" t="str">
         <f t="shared" si="195"/>
@@ -10729,59 +10719,59 @@
       </c>
       <c r="C54" s="30">
         <f t="shared" ref="C54:AH54" si="198">IF(C39&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C39,IF(OR($B$6=3,$B$6=4),C39*1.1,IF(OR($B$6=5,$B$6=6),C39*1.2,IF($B$6=7,C39*1.3,IF($B$6=8,C39*1.35,""))))),"")</f>
-        <v>16.875</v>
+        <v>12.5</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" si="198"/>
-        <v>17.456896551724139</v>
+        <v>12.931034482758621</v>
       </c>
       <c r="E54" s="23">
         <f t="shared" si="198"/>
-        <v>17.867647058823533</v>
+        <v>13.23529411764706</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="198"/>
-        <v>13.96551724137931</v>
+        <v>10.344827586206895</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="198"/>
-        <v>18.620689655172413</v>
+        <v>13.793103448275861</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="198"/>
-        <v>22.112068965517246</v>
+        <v>16.379310344827587</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="198"/>
-        <v>27.931034482758619</v>
+        <v>20.68965517241379</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="198"/>
-        <v>13.96551724137931</v>
+        <v>10.344827586206895</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="198"/>
-        <v>20.948275862068968</v>
+        <v>15.517241379310345</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="198"/>
-        <v>20.948275862068968</v>
+        <v>15.517241379310345</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="198"/>
-        <v>13.96551724137931</v>
+        <v>10.344827586206895</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="198"/>
-        <v>17.456896551724139</v>
+        <v>12.931034482758621</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="198"/>
-        <v>20.948275862068968</v>
-      </c>
-      <c r="P54" s="23" t="str">
+        <v>15.517241379310345</v>
+      </c>
+      <c r="P54" s="23">
         <f t="shared" si="198"/>
-        <v/>
+        <v>15.517241379310345</v>
       </c>
       <c r="Q54" s="23" t="str">
         <f t="shared" si="198"/>
@@ -11039,59 +11029,59 @@
       </c>
       <c r="C55" s="31">
         <f t="shared" ref="C55:AH55" si="201">IF(C40&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C40,IF(OR($B$6=3,$B$6=4),C40*1.1,IF(OR($B$6=5,$B$6=6),C40*1.2,IF($B$6=7,C40*1.3,IF($B$6=8,C40*1.35,""))))),"")</f>
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="D55" s="24">
         <f t="shared" si="201"/>
-        <v>13.965517241379311</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="E55" s="24">
         <f t="shared" si="201"/>
-        <v>13.965517241379311</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="201"/>
-        <v>11.17241379310345</v>
+        <v>8.2758620689655178</v>
       </c>
       <c r="G55" s="24">
         <f t="shared" si="201"/>
-        <v>14.896551724137932</v>
+        <v>11.03448275862069</v>
       </c>
       <c r="H55" s="24">
         <f t="shared" si="201"/>
-        <v>17.689655172413794</v>
+        <v>13.103448275862069</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" si="201"/>
-        <v>22.3448275862069</v>
+        <v>16.551724137931036</v>
       </c>
       <c r="J55" s="24">
         <f t="shared" si="201"/>
-        <v>11.17241379310345</v>
+        <v>8.2758620689655178</v>
       </c>
       <c r="K55" s="24">
         <f t="shared" si="201"/>
-        <v>16.758620689655174</v>
+        <v>12.413793103448278</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" si="201"/>
-        <v>16.758620689655174</v>
+        <v>12.413793103448278</v>
       </c>
       <c r="M55" s="24">
         <f t="shared" si="201"/>
-        <v>11.17241379310345</v>
+        <v>8.2758620689655178</v>
       </c>
       <c r="N55" s="24">
         <f t="shared" si="201"/>
-        <v>13.965517241379311</v>
+        <v>10.344827586206897</v>
       </c>
       <c r="O55" s="24">
         <f t="shared" si="201"/>
-        <v>16.758620689655174</v>
-      </c>
-      <c r="P55" s="24" t="str">
+        <v>12.413793103448278</v>
+      </c>
+      <c r="P55" s="24">
         <f t="shared" si="201"/>
-        <v/>
+        <v>12.413793103448278</v>
       </c>
       <c r="Q55" s="24" t="str">
         <f t="shared" si="201"/>
@@ -11349,59 +11339,59 @@
       </c>
       <c r="C56" s="30">
         <f t="shared" ref="C56:AH56" si="204">IF(C41&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C41,IF(OR($B$6=3,$B$6=4),C41*1.1,IF(OR($B$6=5,$B$6=6),C41*1.2,IF($B$6=7,C41*1.3,IF($B$6=8,C41*1.35,""))))),"")</f>
-        <v>11.475000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="D56" s="23">
         <f t="shared" si="204"/>
-        <v>11.870689655172413</v>
+        <v>8.7931034482758612</v>
       </c>
       <c r="E56" s="23">
         <f t="shared" si="204"/>
-        <v>11.016000000000002</v>
+        <v>8.16</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="204"/>
-        <v>9.496551724137932</v>
+        <v>7.0344827586206904</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="204"/>
-        <v>12.852000000000002</v>
+        <v>9.5200000000000014</v>
       </c>
       <c r="H56" s="23">
         <f t="shared" si="204"/>
-        <v>15.036206896551723</v>
+        <v>11.137931034482758</v>
       </c>
       <c r="I56" s="23">
         <f t="shared" si="204"/>
-        <v>18.993103448275864</v>
+        <v>14.068965517241381</v>
       </c>
       <c r="J56" s="23">
         <f t="shared" si="204"/>
-        <v>9.496551724137932</v>
+        <v>7.0344827586206904</v>
       </c>
       <c r="K56" s="23">
         <f t="shared" si="204"/>
-        <v>14.244827586206897</v>
+        <v>10.551724137931034</v>
       </c>
       <c r="L56" s="23">
         <f t="shared" si="204"/>
-        <v>14.244827586206897</v>
+        <v>10.551724137931034</v>
       </c>
       <c r="M56" s="23">
         <f t="shared" si="204"/>
-        <v>9.496551724137932</v>
+        <v>7.0344827586206904</v>
       </c>
       <c r="N56" s="23">
         <f t="shared" si="204"/>
-        <v>11.870689655172413</v>
+        <v>8.7931034482758612</v>
       </c>
       <c r="O56" s="23">
         <f t="shared" si="204"/>
-        <v>14.244827586206897</v>
-      </c>
-      <c r="P56" s="23" t="str">
+        <v>10.551724137931034</v>
+      </c>
+      <c r="P56" s="23">
         <f t="shared" si="204"/>
-        <v/>
+        <v>10.551724137931034</v>
       </c>
       <c r="Q56" s="23" t="str">
         <f t="shared" si="204"/>
@@ -11659,59 +11649,59 @@
       </c>
       <c r="C57" s="30">
         <f t="shared" ref="C57:AH57" si="207">IF(C42&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C42,IF(OR($B$6=3,$B$6=4),C42*1.1,IF(OR($B$6=5,$B$6=6),C42*1.2,IF($B$6=7,C42*1.3,IF($B$6=8,C42*1.35,""))))),"")</f>
-        <v>9.4500000000000011</v>
+        <v>7</v>
       </c>
       <c r="D57" s="23">
         <f t="shared" si="207"/>
-        <v>9.7758620689655178</v>
+        <v>7.2413793103448274</v>
       </c>
       <c r="E57" s="23">
         <f t="shared" si="207"/>
-        <v>8.5500000000000007</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="207"/>
-        <v>7.8206896551724148</v>
+        <v>5.7931034482758621</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="207"/>
-        <v>10.8</v>
+        <v>8</v>
       </c>
       <c r="H57" s="23">
         <f t="shared" si="207"/>
-        <v>12.382758620689657</v>
+        <v>9.1724137931034484</v>
       </c>
       <c r="I57" s="23">
         <f t="shared" si="207"/>
-        <v>15.64137931034483</v>
+        <v>11.586206896551724</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="207"/>
-        <v>7.8206896551724148</v>
+        <v>5.7931034482758621</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="207"/>
-        <v>11.731034482758622</v>
+        <v>8.6896551724137936</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="207"/>
-        <v>11.731034482758622</v>
+        <v>8.6896551724137936</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="207"/>
-        <v>7.8206896551724148</v>
+        <v>5.7931034482758621</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="207"/>
-        <v>9.7758620689655178</v>
+        <v>7.2413793103448274</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" si="207"/>
-        <v>11.731034482758622</v>
-      </c>
-      <c r="P57" s="23" t="str">
+        <v>8.6896551724137936</v>
+      </c>
+      <c r="P57" s="23">
         <f t="shared" si="207"/>
-        <v/>
+        <v>8.6896551724137936</v>
       </c>
       <c r="Q57" s="23" t="str">
         <f t="shared" si="207"/>
@@ -11969,59 +11959,59 @@
       </c>
       <c r="C58" s="30">
         <f t="shared" ref="C58:AH58" si="210">IF(C43&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C43,IF(OR($B$6=3,$B$6=4),C43*1.1,IF(OR($B$6=5,$B$6=6),C43*1.2,IF($B$6=7,C43*1.3,IF($B$6=8,C43*1.35,""))))),"")</f>
-        <v>7.7625000000000002</v>
+        <v>5.75</v>
       </c>
       <c r="D58" s="23">
         <f t="shared" si="210"/>
-        <v>8.0301724137931032</v>
+        <v>5.9482758620689644</v>
       </c>
       <c r="E58" s="23">
         <f t="shared" si="210"/>
-        <v>8.0301724137931032</v>
+        <v>5.9482758620689644</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="210"/>
-        <v>6.4241379310344833</v>
+        <v>4.7586206896551726</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="210"/>
-        <v>8.5655172413793093</v>
+        <v>6.3448275862068959</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="210"/>
-        <v>10.171551724137931</v>
+        <v>7.5344827586206895</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="210"/>
-        <v>12.848275862068967</v>
+        <v>9.5172413793103452</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="210"/>
-        <v>6.4241379310344833</v>
+        <v>4.7586206896551726</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="210"/>
-        <v>9.6362068965517231</v>
+        <v>7.137931034482758</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="210"/>
-        <v>9.6362068965517231</v>
+        <v>7.137931034482758</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="210"/>
-        <v>6.4241379310344833</v>
+        <v>4.7586206896551726</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="210"/>
-        <v>8.0301724137931032</v>
+        <v>5.9482758620689644</v>
       </c>
       <c r="O58" s="23">
         <f t="shared" si="210"/>
-        <v>9.6362068965517231</v>
-      </c>
-      <c r="P58" s="23" t="str">
+        <v>7.137931034482758</v>
+      </c>
+      <c r="P58" s="23">
         <f t="shared" si="210"/>
-        <v/>
+        <v>7.137931034482758</v>
       </c>
       <c r="Q58" s="23" t="str">
         <f t="shared" si="210"/>
@@ -12279,59 +12269,59 @@
       </c>
       <c r="C59" s="32">
         <f t="shared" ref="C59:AH59" si="213">IF(C44&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C44,IF(OR($B$6=3,$B$6=4),C44*1.1,IF(OR($B$6=5,$B$6=6),C44*1.2,IF($B$6=7,C44*1.3,IF($B$6=8,C44*1.35,""))))),"")</f>
-        <v>6.3913249478255958</v>
+        <v>4.7343147761671078</v>
       </c>
       <c r="D59" s="25">
         <f t="shared" si="213"/>
-        <v>6.6117154632678572</v>
+        <v>4.8975670098280419</v>
       </c>
       <c r="E59" s="25">
         <f t="shared" si="213"/>
-        <v>6.5548206087584955</v>
+        <v>4.8554226731544405</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="213"/>
-        <v>5.2893723706142879</v>
+        <v>3.9180536078624351</v>
       </c>
       <c r="G59" s="25">
         <f t="shared" si="213"/>
-        <v>7.0498753179268441</v>
+        <v>5.2221298651309951</v>
       </c>
       <c r="H59" s="25">
         <f t="shared" si="213"/>
-        <v>8.3748395868059546</v>
+        <v>6.203584879115521</v>
       </c>
       <c r="I59" s="25">
         <f t="shared" si="213"/>
-        <v>10.578744741228576</v>
+        <v>7.8361072157248701</v>
       </c>
       <c r="J59" s="25">
         <f t="shared" si="213"/>
-        <v>5.2893723706142879</v>
+        <v>3.9180536078624351</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="213"/>
-        <v>7.9340585559214292</v>
+        <v>5.877080411793651</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="213"/>
-        <v>7.9340585559214292</v>
+        <v>5.877080411793651</v>
       </c>
       <c r="M59" s="25">
         <f t="shared" si="213"/>
-        <v>5.2893723706142879</v>
+        <v>3.9180536078624351</v>
       </c>
       <c r="N59" s="25">
         <f t="shared" si="213"/>
-        <v>6.6117154632678572</v>
+        <v>4.8975670098280419</v>
       </c>
       <c r="O59" s="25">
         <f t="shared" si="213"/>
-        <v>7.9340585559214292</v>
-      </c>
-      <c r="P59" s="25" t="str">
+        <v>5.877080411793651</v>
+      </c>
+      <c r="P59" s="25">
         <f t="shared" si="213"/>
-        <v/>
+        <v>5.877080411793651</v>
       </c>
       <c r="Q59" s="25" t="str">
         <f t="shared" si="213"/>
@@ -12589,59 +12579,59 @@
       </c>
       <c r="C60" s="33">
         <f t="shared" ref="C60:AH60" si="216">IF(C45&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C45,IF(OR($B$6=3,$B$6=4),C45*1.1,IF(OR($B$6=5,$B$6=6),C45*1.2,IF($B$6=7,C45*1.3,IF($B$6=8,C45*1.35,""))))),"")</f>
-        <v>5.2623555025697719</v>
+        <v>3.8980411130146457</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="216"/>
-        <v>5.4438160371411426</v>
+        <v>4.0324563238082538</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="216"/>
-        <v>5.3505293534177039</v>
+        <v>3.9633550766057062</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="216"/>
-        <v>4.3550528297129167</v>
+        <v>3.2259650590466049</v>
       </c>
       <c r="G60" s="26">
         <f t="shared" si="216"/>
-        <v>5.8024215698514876</v>
+        <v>4.2980900517418421</v>
       </c>
       <c r="H60" s="26">
         <f t="shared" si="216"/>
-        <v>6.895500313712116</v>
+        <v>5.1077780101571228</v>
       </c>
       <c r="I60" s="26">
         <f t="shared" si="216"/>
-        <v>8.7101056594258335</v>
+        <v>6.4519301180932098</v>
       </c>
       <c r="J60" s="26">
         <f t="shared" si="216"/>
-        <v>4.3550528297129167</v>
+        <v>3.2259650590466049</v>
       </c>
       <c r="K60" s="26">
         <f t="shared" si="216"/>
-        <v>6.532579244569372</v>
+        <v>4.8389475885699049</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="216"/>
-        <v>6.532579244569372</v>
+        <v>4.8389475885699049</v>
       </c>
       <c r="M60" s="26">
         <f t="shared" si="216"/>
-        <v>4.3550528297129167</v>
+        <v>3.2259650590466049</v>
       </c>
       <c r="N60" s="26">
         <f t="shared" si="216"/>
-        <v>5.4438160371411426</v>
+        <v>4.0324563238082538</v>
       </c>
       <c r="O60" s="26">
         <f t="shared" si="216"/>
-        <v>6.532579244569372</v>
-      </c>
-      <c r="P60" s="26" t="str">
+        <v>4.8389475885699049</v>
+      </c>
+      <c r="P60" s="26">
         <f t="shared" si="216"/>
-        <v/>
+        <v>4.8389475885699049</v>
       </c>
       <c r="Q60" s="26" t="str">
         <f t="shared" si="216"/>

--- a/developingCalcData.xlsx
+++ b/developingCalcData.xlsx
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:BZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E6" sqref="E6:M6"/>
     </sheetView>
   </sheetViews>

--- a/developingCalcData.xlsx
+++ b/developingCalcData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>D-76</t>
     <phoneticPr fontId="1"/>
@@ -301,6 +301,10 @@
   </si>
   <si>
     <t>BERGGER_Pancro400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FOQUS_Type-D200</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1182,8 +1186,8 @@
   <dimension ref="A1:BZ60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E6" sqref="E6:M6"/>
+      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1365,14 +1369,20 @@
       <c r="A6" s="1"/>
       <c r="B6" s="52">
         <f>IF(D6="","",IF(SUM(D6:W6)&lt;=36,1,IF(SUM(D6:W6)&lt;=72,2,IF(SUM(D6:W6)&lt;=108,3,IF(SUM(D6:W6)&lt;=144,4,IF(SUM(D6:W6)&lt;=180,5,IF(SUM(D6:W6)&lt;=216,6,IF(SUM(D6:W6)&lt;=242,7,IF(SUM(D6:W6)&lt;=278,8,"ERR")))))))))</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="58">
         <v>36</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="E6" s="11">
+        <v>36</v>
+      </c>
+      <c r="F6" s="11">
+        <v>36</v>
+      </c>
+      <c r="G6" s="11">
+        <v>14</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
@@ -1558,7 +1568,9 @@
       <c r="P17" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="17"/>
+      <c r="Q17" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
       <c r="T17" s="17"/>
@@ -1680,9 +1692,9 @@
         <f t="shared" si="1"/>
         <v>10.551724137931034</v>
       </c>
-      <c r="Q18" s="49" t="str">
+      <c r="Q18" s="49">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11.724137931034482</v>
       </c>
       <c r="R18" s="49" t="str">
         <f t="shared" si="1"/>
@@ -1976,7 +1988,9 @@
       <c r="P19" s="50">
         <v>9</v>
       </c>
-      <c r="Q19" s="50"/>
+      <c r="Q19" s="50">
+        <v>10</v>
+      </c>
       <c r="R19" s="50"/>
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
@@ -2097,9 +2111,9 @@
         <f t="shared" si="3"/>
         <v>7.7586206896551717</v>
       </c>
-      <c r="Q20" s="49" t="str">
+      <c r="Q20" s="49">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.6206896551724128</v>
       </c>
       <c r="R20" s="49" t="str">
         <f t="shared" si="3"/>
@@ -2404,9 +2418,9 @@
         <f t="shared" si="5"/>
         <v>6.5172413793103452</v>
       </c>
-      <c r="Q21" s="49" t="str">
+      <c r="Q21" s="49">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7.2413793103448274</v>
       </c>
       <c r="R21" s="49" t="str">
         <f t="shared" si="5"/>
@@ -2713,9 +2727,9 @@
         <f t="shared" si="5"/>
         <v>5.5862068965517242</v>
       </c>
-      <c r="Q22" s="51" t="str">
+      <c r="Q22" s="51">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6.2068965517241379</v>
       </c>
       <c r="R22" s="51" t="str">
         <f t="shared" si="5"/>
@@ -3029,7 +3043,7 @@
       </c>
       <c r="Q25" s="6" t="str">
         <f t="shared" si="8"/>
-        <v/>
+        <v>FOQUS_Type-D200</v>
       </c>
       <c r="R25" s="6" t="str">
         <f t="shared" si="8"/>
@@ -3336,9 +3350,9 @@
         <f t="shared" si="11"/>
         <v>1.2499999999999998</v>
       </c>
-      <c r="Q26" s="27" t="str">
+      <c r="Q26" s="27">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="R26" s="27" t="str">
         <f t="shared" si="11"/>
@@ -3645,9 +3659,9 @@
         <f t="shared" si="14"/>
         <v>1.1764705882352944</v>
       </c>
-      <c r="Q27" s="27" t="str">
+      <c r="Q27" s="27">
         <f t="shared" si="14"/>
-        <v/>
+        <v>1.1764705882352942</v>
       </c>
       <c r="R27" s="27" t="str">
         <f t="shared" si="14"/>
@@ -3954,9 +3968,9 @@
         <f t="shared" si="16"/>
         <v>1.2142857142857142</v>
       </c>
-      <c r="Q28" s="27" t="str">
+      <c r="Q28" s="27">
         <f t="shared" si="16"/>
-        <v/>
+        <v>1.2142857142857142</v>
       </c>
       <c r="R28" s="27" t="str">
         <f t="shared" si="16"/>
@@ -4263,9 +4277,9 @@
         <f t="shared" si="18"/>
         <v>1.2173913043478262</v>
       </c>
-      <c r="Q29" s="27" t="str">
+      <c r="Q29" s="27">
         <f t="shared" si="18"/>
-        <v/>
+        <v>1.2173913043478262</v>
       </c>
       <c r="R29" s="27" t="str">
         <f t="shared" si="18"/>
@@ -4572,9 +4586,9 @@
         <f t="shared" si="20"/>
         <v>1.2145369017172087</v>
       </c>
-      <c r="Q30" s="37" t="str">
+      <c r="Q30" s="37">
         <f t="shared" si="20"/>
-        <v/>
+        <v>1.2145369017172087</v>
       </c>
       <c r="R30" s="37" t="str">
         <f t="shared" si="20"/>
@@ -4889,7 +4903,7 @@
       </c>
       <c r="Q33" s="6" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>FOQUS_Type-D200</v>
       </c>
       <c r="R33" s="6" t="str">
         <f t="shared" si="23"/>
@@ -5196,9 +5210,9 @@
         <f t="shared" ref="P34:P38" si="33">IF(P35&lt;&gt;"",P35*P26,"")</f>
         <v>40.970135365273165</v>
       </c>
-      <c r="Q34" s="22" t="str">
+      <c r="Q34" s="22">
         <f t="shared" ref="Q34:Q38" si="34">IF(Q35&lt;&gt;"",Q35*Q26,"")</f>
-        <v/>
+        <v>45.522372628081285</v>
       </c>
       <c r="R34" s="22" t="str">
         <f t="shared" ref="R34:R38" si="35">IF(R35&lt;&gt;"",R35*R26,"")</f>
@@ -5505,9 +5519,9 @@
         <f t="shared" si="33"/>
         <v>32.776108292218538</v>
       </c>
-      <c r="Q35" s="22" t="str">
+      <c r="Q35" s="22">
         <f t="shared" si="34"/>
-        <v/>
+        <v>36.417898102465031</v>
       </c>
       <c r="R35" s="22" t="str">
         <f t="shared" si="35"/>
@@ -5814,9 +5828,9 @@
         <f t="shared" si="33"/>
         <v>27.85969204838575</v>
       </c>
-      <c r="Q36" s="22" t="str">
+      <c r="Q36" s="22">
         <f t="shared" si="34"/>
-        <v/>
+        <v>30.955213387095277</v>
       </c>
       <c r="R36" s="22" t="str">
         <f t="shared" si="35"/>
@@ -6123,9 +6137,9 @@
         <f t="shared" si="33"/>
         <v>22.943275804552972</v>
       </c>
-      <c r="Q37" s="22" t="str">
+      <c r="Q37" s="22">
         <f t="shared" si="34"/>
-        <v/>
+        <v>25.492528671725523</v>
       </c>
       <c r="R37" s="22" t="str">
         <f t="shared" si="35"/>
@@ -6432,9 +6446,9 @@
         <f t="shared" si="33"/>
         <v>18.846262268025654</v>
       </c>
-      <c r="Q38" s="22" t="str">
+      <c r="Q38" s="22">
         <f t="shared" si="34"/>
-        <v/>
+        <v>20.940291408917393</v>
       </c>
       <c r="R38" s="22" t="str">
         <f t="shared" si="35"/>
@@ -6741,9 +6755,9 @@
         <f t="shared" si="96"/>
         <v>15.517241379310345</v>
       </c>
-      <c r="Q39" s="23" t="str">
+      <c r="Q39" s="23">
         <f t="shared" si="96"/>
-        <v/>
+        <v>17.241379310344829</v>
       </c>
       <c r="R39" s="23" t="str">
         <f t="shared" si="96"/>
@@ -7050,9 +7064,9 @@
         <f t="shared" si="99"/>
         <v>12.413793103448278</v>
       </c>
-      <c r="Q40" s="24" t="str">
+      <c r="Q40" s="24">
         <f t="shared" si="99"/>
-        <v/>
+        <v>13.793103448275863</v>
       </c>
       <c r="R40" s="24" t="str">
         <f t="shared" si="99"/>
@@ -7359,9 +7373,9 @@
         <f t="shared" si="102"/>
         <v>10.551724137931034</v>
       </c>
-      <c r="Q41" s="23" t="str">
+      <c r="Q41" s="23">
         <f t="shared" si="102"/>
-        <v/>
+        <v>11.724137931034482</v>
       </c>
       <c r="R41" s="23" t="str">
         <f t="shared" si="102"/>
@@ -7668,9 +7682,9 @@
         <f t="shared" si="105"/>
         <v>8.6896551724137936</v>
       </c>
-      <c r="Q42" s="23" t="str">
+      <c r="Q42" s="23">
         <f t="shared" si="105"/>
-        <v/>
+        <v>9.6551724137931032</v>
       </c>
       <c r="R42" s="23" t="str">
         <f t="shared" si="105"/>
@@ -7977,9 +7991,9 @@
         <f t="shared" si="108"/>
         <v>7.137931034482758</v>
       </c>
-      <c r="Q43" s="23" t="str">
+      <c r="Q43" s="23">
         <f t="shared" si="108"/>
-        <v/>
+        <v>7.9310344827586201</v>
       </c>
       <c r="R43" s="23" t="str">
         <f t="shared" si="108"/>
@@ -8286,9 +8300,9 @@
         <f t="shared" ref="P44:P45" si="118">IF(P43&lt;&gt;"",P43/P$30,"")</f>
         <v>5.877080411793651</v>
       </c>
-      <c r="Q44" s="25" t="str">
+      <c r="Q44" s="25">
         <f t="shared" ref="Q44:Q45" si="119">IF(Q43&lt;&gt;"",Q43/Q$30,"")</f>
-        <v/>
+        <v>6.5300893464373901</v>
       </c>
       <c r="R44" s="25" t="str">
         <f t="shared" ref="R44:R45" si="120">IF(R43&lt;&gt;"",R43/R$30,"")</f>
@@ -8595,9 +8609,9 @@
         <f t="shared" si="118"/>
         <v>4.8389475885699049</v>
       </c>
-      <c r="Q45" s="26" t="str">
+      <c r="Q45" s="26">
         <f t="shared" si="119"/>
-        <v/>
+        <v>5.376608431744339</v>
       </c>
       <c r="R45" s="26" t="str">
         <f t="shared" si="120"/>
@@ -8915,7 +8929,7 @@
       </c>
       <c r="Q48" s="6" t="str">
         <f t="shared" si="181"/>
-        <v/>
+        <v>FOQUS_Type-D200</v>
       </c>
       <c r="R48" s="6" t="str">
         <f t="shared" si="181"/>
@@ -9169,63 +9183,63 @@
       </c>
       <c r="C49" s="29">
         <f t="shared" ref="C49:AH49" si="183">IF(C34&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C34,IF(OR($B$6=3,$B$6=4),C34*1.1,IF(OR($B$6=5,$B$6=6),C34*1.2,IF($B$6=7,C34*1.3,IF($B$6=8,C34*1.35,""))))),"")</f>
-        <v>33.003720155358934</v>
+        <v>36.304092170894833</v>
       </c>
       <c r="D49" s="22">
         <f t="shared" si="183"/>
-        <v>34.141779471060971</v>
+        <v>37.555957418167068</v>
       </c>
       <c r="E49" s="22">
         <f t="shared" si="183"/>
-        <v>36.077808704307422</v>
+        <v>39.685589574738167</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" si="183"/>
-        <v>27.313423576848759</v>
+        <v>30.044765934533636</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="183"/>
-        <v>36.431438445291725</v>
+        <v>40.074582289820903</v>
       </c>
       <c r="H49" s="22">
         <f t="shared" si="183"/>
-        <v>43.246253996677233</v>
+        <v>47.570879396344957</v>
       </c>
       <c r="I49" s="22">
         <f t="shared" si="183"/>
-        <v>54.626847153697518</v>
+        <v>60.089531869067272</v>
       </c>
       <c r="J49" s="22">
         <f t="shared" si="183"/>
-        <v>27.313423576848759</v>
+        <v>30.044765934533636</v>
       </c>
       <c r="K49" s="22">
         <f t="shared" si="183"/>
-        <v>40.970135365273165</v>
+        <v>45.067148901800486</v>
       </c>
       <c r="L49" s="22">
         <f t="shared" si="183"/>
-        <v>40.970135365273165</v>
+        <v>45.067148901800486</v>
       </c>
       <c r="M49" s="22">
         <f t="shared" si="183"/>
-        <v>27.313423576848759</v>
+        <v>30.044765934533636</v>
       </c>
       <c r="N49" s="22">
         <f t="shared" si="183"/>
-        <v>34.141779471060971</v>
+        <v>37.555957418167068</v>
       </c>
       <c r="O49" s="22">
         <f t="shared" si="183"/>
-        <v>40.970135365273165</v>
+        <v>45.067148901800486</v>
       </c>
       <c r="P49" s="22">
         <f t="shared" si="183"/>
-        <v>40.970135365273165</v>
-      </c>
-      <c r="Q49" s="22" t="str">
+        <v>45.067148901800486</v>
+      </c>
+      <c r="Q49" s="22">
         <f t="shared" si="183"/>
-        <v/>
+        <v>50.07460989088942</v>
       </c>
       <c r="R49" s="22" t="str">
         <f t="shared" si="183"/>
@@ -9479,63 +9493,63 @@
       </c>
       <c r="C50" s="29">
         <f t="shared" ref="C50:AH50" si="186">IF(C35&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C35,IF(OR($B$6=3,$B$6=4),C35*1.1,IF(OR($B$6=5,$B$6=6),C35*1.2,IF($B$6=7,C35*1.3,IF($B$6=8,C35*1.35,""))))),"")</f>
-        <v>26.402976124287147</v>
+        <v>29.043273736715864</v>
       </c>
       <c r="D50" s="22">
         <f t="shared" si="186"/>
-        <v>27.313423576848777</v>
+        <v>30.044765934533658</v>
       </c>
       <c r="E50" s="22">
         <f t="shared" si="186"/>
-        <v>28.198747033251777</v>
+        <v>31.018621736576957</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="186"/>
-        <v>21.850738861479012</v>
+        <v>24.035812747626917</v>
       </c>
       <c r="G50" s="22">
         <f t="shared" si="186"/>
-        <v>29.145150756233388</v>
+        <v>32.059665831856726</v>
       </c>
       <c r="H50" s="22">
         <f t="shared" si="186"/>
-        <v>34.597003197341785</v>
+        <v>38.056703517075967</v>
       </c>
       <c r="I50" s="22">
         <f t="shared" si="186"/>
-        <v>43.701477722958025</v>
+        <v>48.071625495253834</v>
       </c>
       <c r="J50" s="22">
         <f t="shared" si="186"/>
-        <v>21.850738861479012</v>
+        <v>24.035812747626917</v>
       </c>
       <c r="K50" s="22">
         <f t="shared" si="186"/>
-        <v>32.776108292218538</v>
+        <v>36.053719121440395</v>
       </c>
       <c r="L50" s="22">
         <f t="shared" si="186"/>
-        <v>32.776108292218538</v>
+        <v>36.053719121440395</v>
       </c>
       <c r="M50" s="22">
         <f t="shared" si="186"/>
-        <v>21.850738861479012</v>
+        <v>24.035812747626917</v>
       </c>
       <c r="N50" s="22">
         <f t="shared" si="186"/>
-        <v>27.313423576848777</v>
+        <v>30.044765934533658</v>
       </c>
       <c r="O50" s="22">
         <f t="shared" si="186"/>
-        <v>32.776108292218538</v>
+        <v>36.053719121440395</v>
       </c>
       <c r="P50" s="22">
         <f t="shared" si="186"/>
-        <v>32.776108292218538</v>
-      </c>
-      <c r="Q50" s="22" t="str">
+        <v>36.053719121440395</v>
+      </c>
+      <c r="Q50" s="22">
         <f t="shared" si="186"/>
-        <v/>
+        <v>40.059687912711539</v>
       </c>
       <c r="R50" s="22" t="str">
         <f t="shared" si="186"/>
@@ -9789,63 +9803,63 @@
       </c>
       <c r="C51" s="29">
         <f t="shared" ref="C51:AH51" si="189">IF(C36&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C36,IF(OR($B$6=3,$B$6=4),C36*1.1,IF(OR($B$6=5,$B$6=6),C36*1.2,IF($B$6=7,C36*1.3,IF($B$6=8,C36*1.35,""))))),"")</f>
-        <v>22.442529705644073</v>
+        <v>24.686782676208484</v>
       </c>
       <c r="D51" s="22">
         <f t="shared" si="189"/>
-        <v>23.21641004032146</v>
+        <v>25.538051044353608</v>
       </c>
       <c r="E51" s="22">
         <f t="shared" si="189"/>
-        <v>22.243171659829002</v>
+        <v>24.467488825811905</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" si="189"/>
-        <v>18.573128032257159</v>
+        <v>20.430440835482877</v>
       </c>
       <c r="G51" s="22">
         <f t="shared" si="189"/>
-        <v>25.144978814940359</v>
+        <v>27.659476696434396</v>
       </c>
       <c r="H51" s="22">
         <f t="shared" si="189"/>
-        <v>29.407452717740515</v>
+        <v>32.348197989514567</v>
       </c>
       <c r="I51" s="22">
         <f t="shared" si="189"/>
-        <v>37.146256064514318</v>
+        <v>40.860881670965753</v>
       </c>
       <c r="J51" s="22">
         <f t="shared" si="189"/>
-        <v>18.573128032257159</v>
+        <v>20.430440835482877</v>
       </c>
       <c r="K51" s="22">
         <f t="shared" si="189"/>
-        <v>27.85969204838575</v>
+        <v>30.645661253224326</v>
       </c>
       <c r="L51" s="22">
         <f t="shared" si="189"/>
-        <v>27.85969204838575</v>
+        <v>30.645661253224326</v>
       </c>
       <c r="M51" s="22">
         <f t="shared" si="189"/>
-        <v>18.573128032257159</v>
+        <v>20.430440835482877</v>
       </c>
       <c r="N51" s="22">
         <f t="shared" si="189"/>
-        <v>23.21641004032146</v>
+        <v>25.538051044353608</v>
       </c>
       <c r="O51" s="22">
         <f t="shared" si="189"/>
-        <v>27.85969204838575</v>
+        <v>30.645661253224326</v>
       </c>
       <c r="P51" s="22">
         <f t="shared" si="189"/>
-        <v>27.85969204838575</v>
-      </c>
-      <c r="Q51" s="22" t="str">
+        <v>30.645661253224326</v>
+      </c>
+      <c r="Q51" s="22">
         <f t="shared" si="189"/>
-        <v/>
+        <v>34.050734725804809</v>
       </c>
       <c r="R51" s="22" t="str">
         <f t="shared" si="189"/>
@@ -10099,63 +10113,63 @@
       </c>
       <c r="C52" s="29">
         <f t="shared" ref="C52:AH52" si="192">IF(C37&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C37,IF(OR($B$6=3,$B$6=4),C37*1.1,IF(OR($B$6=5,$B$6=6),C37*1.2,IF($B$6=7,C37*1.3,IF($B$6=8,C37*1.35,""))))),"")</f>
-        <v>18.482083287001004</v>
+        <v>20.330291615701107</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" si="192"/>
-        <v>19.119396503794146</v>
+        <v>21.031336154173562</v>
       </c>
       <c r="E52" s="22">
         <f t="shared" si="192"/>
-        <v>17.263899572579696</v>
+        <v>18.990289529837668</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="192"/>
-        <v>15.295517203035306</v>
+        <v>16.825068923338836</v>
       </c>
       <c r="G52" s="22">
         <f t="shared" si="192"/>
-        <v>21.130234298269205</v>
+        <v>23.243257728096125</v>
       </c>
       <c r="H52" s="22">
         <f t="shared" si="192"/>
-        <v>24.217902238139249</v>
+        <v>26.639692461953178</v>
       </c>
       <c r="I52" s="22">
         <f t="shared" si="192"/>
-        <v>30.591034406070612</v>
+        <v>33.650137846677673</v>
       </c>
       <c r="J52" s="22">
         <f t="shared" si="192"/>
-        <v>15.295517203035306</v>
+        <v>16.825068923338836</v>
       </c>
       <c r="K52" s="22">
         <f t="shared" si="192"/>
-        <v>22.943275804552972</v>
+        <v>25.237603385008271</v>
       </c>
       <c r="L52" s="22">
         <f t="shared" si="192"/>
-        <v>22.943275804552972</v>
+        <v>25.237603385008271</v>
       </c>
       <c r="M52" s="22">
         <f t="shared" si="192"/>
-        <v>15.295517203035306</v>
+        <v>16.825068923338836</v>
       </c>
       <c r="N52" s="22">
         <f t="shared" si="192"/>
-        <v>19.119396503794146</v>
+        <v>21.031336154173562</v>
       </c>
       <c r="O52" s="22">
         <f t="shared" si="192"/>
-        <v>22.943275804552972</v>
+        <v>25.237603385008271</v>
       </c>
       <c r="P52" s="22">
         <f t="shared" si="192"/>
-        <v>22.943275804552972</v>
-      </c>
-      <c r="Q52" s="22" t="str">
+        <v>25.237603385008271</v>
+      </c>
+      <c r="Q52" s="22">
         <f t="shared" si="192"/>
-        <v/>
+        <v>28.041781538898078</v>
       </c>
       <c r="R52" s="22" t="str">
         <f t="shared" si="192"/>
@@ -10409,63 +10423,63 @@
       </c>
       <c r="C53" s="29">
         <f t="shared" ref="C53:AH53" si="195">IF(C38&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C38,IF(OR($B$6=3,$B$6=4),C38*1.1,IF(OR($B$6=5,$B$6=6),C38*1.2,IF($B$6=7,C38*1.3,IF($B$6=8,C38*1.35,""))))),"")</f>
-        <v>15.18171127146511</v>
+        <v>16.699882398611621</v>
       </c>
       <c r="D53" s="22">
         <f t="shared" si="195"/>
-        <v>15.705218556688044</v>
+        <v>17.27574041235685</v>
       </c>
       <c r="E53" s="22">
         <f t="shared" si="195"/>
-        <v>16.214279544119766</v>
+        <v>17.835707498531743</v>
       </c>
       <c r="F53" s="22">
         <f t="shared" si="195"/>
-        <v>12.564174845350431</v>
+        <v>13.820592329885475</v>
       </c>
       <c r="G53" s="22">
         <f t="shared" si="195"/>
-        <v>16.758461684834195</v>
+        <v>18.434307853317616</v>
       </c>
       <c r="H53" s="22">
         <f t="shared" si="195"/>
-        <v>19.893276838471525</v>
+        <v>21.88260452231868</v>
       </c>
       <c r="I53" s="22">
         <f t="shared" si="195"/>
-        <v>25.128349690700862</v>
+        <v>27.64118465977095</v>
       </c>
       <c r="J53" s="22">
         <f t="shared" si="195"/>
-        <v>12.564174845350431</v>
+        <v>13.820592329885475</v>
       </c>
       <c r="K53" s="22">
         <f t="shared" si="195"/>
-        <v>18.846262268025654</v>
+        <v>20.730888494828221</v>
       </c>
       <c r="L53" s="22">
         <f t="shared" si="195"/>
-        <v>18.846262268025654</v>
+        <v>20.730888494828221</v>
       </c>
       <c r="M53" s="22">
         <f t="shared" si="195"/>
-        <v>12.564174845350431</v>
+        <v>13.820592329885475</v>
       </c>
       <c r="N53" s="22">
         <f t="shared" si="195"/>
-        <v>15.705218556688044</v>
+        <v>17.27574041235685</v>
       </c>
       <c r="O53" s="22">
         <f t="shared" si="195"/>
-        <v>18.846262268025654</v>
+        <v>20.730888494828221</v>
       </c>
       <c r="P53" s="22">
         <f t="shared" si="195"/>
-        <v>18.846262268025654</v>
-      </c>
-      <c r="Q53" s="22" t="str">
+        <v>20.730888494828221</v>
+      </c>
+      <c r="Q53" s="22">
         <f t="shared" si="195"/>
-        <v/>
+        <v>23.034320549809134</v>
       </c>
       <c r="R53" s="22" t="str">
         <f t="shared" si="195"/>
@@ -10719,63 +10733,63 @@
       </c>
       <c r="C54" s="30">
         <f t="shared" ref="C54:AH54" si="198">IF(C39&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C39,IF(OR($B$6=3,$B$6=4),C39*1.1,IF(OR($B$6=5,$B$6=6),C39*1.2,IF($B$6=7,C39*1.3,IF($B$6=8,C39*1.35,""))))),"")</f>
-        <v>12.5</v>
+        <v>13.750000000000002</v>
       </c>
       <c r="D54" s="23">
         <f t="shared" si="198"/>
-        <v>12.931034482758621</v>
+        <v>14.224137931034484</v>
       </c>
       <c r="E54" s="23">
         <f t="shared" si="198"/>
-        <v>13.23529411764706</v>
+        <v>14.558823529411766</v>
       </c>
       <c r="F54" s="23">
         <f t="shared" si="198"/>
-        <v>10.344827586206895</v>
+        <v>11.379310344827585</v>
       </c>
       <c r="G54" s="23">
         <f t="shared" si="198"/>
-        <v>13.793103448275861</v>
+        <v>15.172413793103448</v>
       </c>
       <c r="H54" s="23">
         <f t="shared" si="198"/>
-        <v>16.379310344827587</v>
+        <v>18.017241379310349</v>
       </c>
       <c r="I54" s="23">
         <f t="shared" si="198"/>
-        <v>20.68965517241379</v>
+        <v>22.758620689655171</v>
       </c>
       <c r="J54" s="23">
         <f t="shared" si="198"/>
-        <v>10.344827586206895</v>
+        <v>11.379310344827585</v>
       </c>
       <c r="K54" s="23">
         <f t="shared" si="198"/>
-        <v>15.517241379310345</v>
+        <v>17.068965517241381</v>
       </c>
       <c r="L54" s="23">
         <f t="shared" si="198"/>
-        <v>15.517241379310345</v>
+        <v>17.068965517241381</v>
       </c>
       <c r="M54" s="23">
         <f t="shared" si="198"/>
-        <v>10.344827586206895</v>
+        <v>11.379310344827585</v>
       </c>
       <c r="N54" s="23">
         <f t="shared" si="198"/>
-        <v>12.931034482758621</v>
+        <v>14.224137931034484</v>
       </c>
       <c r="O54" s="23">
         <f t="shared" si="198"/>
-        <v>15.517241379310345</v>
+        <v>17.068965517241381</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" si="198"/>
-        <v>15.517241379310345</v>
-      </c>
-      <c r="Q54" s="23" t="str">
+        <v>17.068965517241381</v>
+      </c>
+      <c r="Q54" s="23">
         <f t="shared" si="198"/>
-        <v/>
+        <v>18.965517241379313</v>
       </c>
       <c r="R54" s="23" t="str">
         <f t="shared" si="198"/>
@@ -11029,63 +11043,63 @@
       </c>
       <c r="C55" s="31">
         <f t="shared" ref="C55:AH55" si="201">IF(C40&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C40,IF(OR($B$6=3,$B$6=4),C40*1.1,IF(OR($B$6=5,$B$6=6),C40*1.2,IF($B$6=7,C40*1.3,IF($B$6=8,C40*1.35,""))))),"")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="24">
         <f t="shared" si="201"/>
-        <v>10.344827586206897</v>
+        <v>11.379310344827587</v>
       </c>
       <c r="E55" s="24">
         <f t="shared" si="201"/>
-        <v>10.344827586206897</v>
+        <v>11.379310344827587</v>
       </c>
       <c r="F55" s="24">
         <f t="shared" si="201"/>
-        <v>8.2758620689655178</v>
+        <v>9.1034482758620712</v>
       </c>
       <c r="G55" s="24">
         <f t="shared" si="201"/>
-        <v>11.03448275862069</v>
+        <v>12.13793103448276</v>
       </c>
       <c r="H55" s="24">
         <f t="shared" si="201"/>
-        <v>13.103448275862069</v>
+        <v>14.413793103448278</v>
       </c>
       <c r="I55" s="24">
         <f t="shared" si="201"/>
-        <v>16.551724137931036</v>
+        <v>18.206896551724142</v>
       </c>
       <c r="J55" s="24">
         <f t="shared" si="201"/>
-        <v>8.2758620689655178</v>
+        <v>9.1034482758620712</v>
       </c>
       <c r="K55" s="24">
         <f t="shared" si="201"/>
-        <v>12.413793103448278</v>
+        <v>13.655172413793107</v>
       </c>
       <c r="L55" s="24">
         <f t="shared" si="201"/>
-        <v>12.413793103448278</v>
+        <v>13.655172413793107</v>
       </c>
       <c r="M55" s="24">
         <f t="shared" si="201"/>
-        <v>8.2758620689655178</v>
+        <v>9.1034482758620712</v>
       </c>
       <c r="N55" s="24">
         <f t="shared" si="201"/>
-        <v>10.344827586206897</v>
+        <v>11.379310344827587</v>
       </c>
       <c r="O55" s="24">
         <f t="shared" si="201"/>
-        <v>12.413793103448278</v>
+        <v>13.655172413793107</v>
       </c>
       <c r="P55" s="24">
         <f t="shared" si="201"/>
-        <v>12.413793103448278</v>
-      </c>
-      <c r="Q55" s="24" t="str">
+        <v>13.655172413793107</v>
+      </c>
+      <c r="Q55" s="24">
         <f t="shared" si="201"/>
-        <v/>
+        <v>15.17241379310345</v>
       </c>
       <c r="R55" s="24" t="str">
         <f t="shared" si="201"/>
@@ -11339,63 +11353,63 @@
       </c>
       <c r="C56" s="30">
         <f t="shared" ref="C56:AH56" si="204">IF(C41&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C41,IF(OR($B$6=3,$B$6=4),C41*1.1,IF(OR($B$6=5,$B$6=6),C41*1.2,IF($B$6=7,C41*1.3,IF($B$6=8,C41*1.35,""))))),"")</f>
-        <v>8.5</v>
+        <v>9.3500000000000014</v>
       </c>
       <c r="D56" s="23">
         <f t="shared" si="204"/>
-        <v>8.7931034482758612</v>
+        <v>9.6724137931034484</v>
       </c>
       <c r="E56" s="23">
         <f t="shared" si="204"/>
-        <v>8.16</v>
+        <v>8.9760000000000009</v>
       </c>
       <c r="F56" s="23">
         <f t="shared" si="204"/>
-        <v>7.0344827586206904</v>
+        <v>7.7379310344827603</v>
       </c>
       <c r="G56" s="23">
         <f t="shared" si="204"/>
-        <v>9.5200000000000014</v>
+        <v>10.472000000000003</v>
       </c>
       <c r="H56" s="23">
         <f t="shared" si="204"/>
-        <v>11.137931034482758</v>
+        <v>12.251724137931035</v>
       </c>
       <c r="I56" s="23">
         <f t="shared" si="204"/>
-        <v>14.068965517241381</v>
+        <v>15.475862068965521</v>
       </c>
       <c r="J56" s="23">
         <f t="shared" si="204"/>
-        <v>7.0344827586206904</v>
+        <v>7.7379310344827603</v>
       </c>
       <c r="K56" s="23">
         <f t="shared" si="204"/>
-        <v>10.551724137931034</v>
+        <v>11.606896551724137</v>
       </c>
       <c r="L56" s="23">
         <f t="shared" si="204"/>
-        <v>10.551724137931034</v>
+        <v>11.606896551724137</v>
       </c>
       <c r="M56" s="23">
         <f t="shared" si="204"/>
-        <v>7.0344827586206904</v>
+        <v>7.7379310344827603</v>
       </c>
       <c r="N56" s="23">
         <f t="shared" si="204"/>
-        <v>8.7931034482758612</v>
+        <v>9.6724137931034484</v>
       </c>
       <c r="O56" s="23">
         <f t="shared" si="204"/>
-        <v>10.551724137931034</v>
+        <v>11.606896551724137</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" si="204"/>
-        <v>10.551724137931034</v>
-      </c>
-      <c r="Q56" s="23" t="str">
+        <v>11.606896551724137</v>
+      </c>
+      <c r="Q56" s="23">
         <f t="shared" si="204"/>
-        <v/>
+        <v>12.896551724137931</v>
       </c>
       <c r="R56" s="23" t="str">
         <f t="shared" si="204"/>
@@ -11649,63 +11663,63 @@
       </c>
       <c r="C57" s="30">
         <f t="shared" ref="C57:AH57" si="207">IF(C42&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C42,IF(OR($B$6=3,$B$6=4),C42*1.1,IF(OR($B$6=5,$B$6=6),C42*1.2,IF($B$6=7,C42*1.3,IF($B$6=8,C42*1.35,""))))),"")</f>
-        <v>7</v>
+        <v>7.7000000000000011</v>
       </c>
       <c r="D57" s="23">
         <f t="shared" si="207"/>
-        <v>7.2413793103448274</v>
+        <v>7.9655172413793105</v>
       </c>
       <c r="E57" s="23">
         <f t="shared" si="207"/>
-        <v>6.333333333333333</v>
+        <v>6.9666666666666668</v>
       </c>
       <c r="F57" s="23">
         <f t="shared" si="207"/>
-        <v>5.7931034482758621</v>
+        <v>6.3724137931034486</v>
       </c>
       <c r="G57" s="23">
         <f t="shared" si="207"/>
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H57" s="23">
         <f t="shared" si="207"/>
-        <v>9.1724137931034484</v>
+        <v>10.089655172413794</v>
       </c>
       <c r="I57" s="23">
         <f t="shared" si="207"/>
-        <v>11.586206896551724</v>
+        <v>12.744827586206897</v>
       </c>
       <c r="J57" s="23">
         <f t="shared" si="207"/>
-        <v>5.7931034482758621</v>
+        <v>6.3724137931034486</v>
       </c>
       <c r="K57" s="23">
         <f t="shared" si="207"/>
-        <v>8.6896551724137936</v>
+        <v>9.5586206896551733</v>
       </c>
       <c r="L57" s="23">
         <f t="shared" si="207"/>
-        <v>8.6896551724137936</v>
+        <v>9.5586206896551733</v>
       </c>
       <c r="M57" s="23">
         <f t="shared" si="207"/>
-        <v>5.7931034482758621</v>
+        <v>6.3724137931034486</v>
       </c>
       <c r="N57" s="23">
         <f t="shared" si="207"/>
-        <v>7.2413793103448274</v>
+        <v>7.9655172413793105</v>
       </c>
       <c r="O57" s="23">
         <f t="shared" si="207"/>
-        <v>8.6896551724137936</v>
+        <v>9.5586206896551733</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" si="207"/>
-        <v>8.6896551724137936</v>
-      </c>
-      <c r="Q57" s="23" t="str">
+        <v>9.5586206896551733</v>
+      </c>
+      <c r="Q57" s="23">
         <f t="shared" si="207"/>
-        <v/>
+        <v>10.620689655172415</v>
       </c>
       <c r="R57" s="23" t="str">
         <f t="shared" si="207"/>
@@ -11959,63 +11973,63 @@
       </c>
       <c r="C58" s="30">
         <f t="shared" ref="C58:AH58" si="210">IF(C43&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C43,IF(OR($B$6=3,$B$6=4),C43*1.1,IF(OR($B$6=5,$B$6=6),C43*1.2,IF($B$6=7,C43*1.3,IF($B$6=8,C43*1.35,""))))),"")</f>
-        <v>5.75</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="D58" s="23">
         <f t="shared" si="210"/>
-        <v>5.9482758620689644</v>
+        <v>6.5431034482758612</v>
       </c>
       <c r="E58" s="23">
         <f t="shared" si="210"/>
-        <v>5.9482758620689644</v>
+        <v>6.5431034482758612</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="210"/>
-        <v>4.7586206896551726</v>
+        <v>5.2344827586206906</v>
       </c>
       <c r="G58" s="23">
         <f t="shared" si="210"/>
-        <v>6.3448275862068959</v>
+        <v>6.9793103448275859</v>
       </c>
       <c r="H58" s="23">
         <f t="shared" si="210"/>
-        <v>7.5344827586206895</v>
+        <v>8.2879310344827584</v>
       </c>
       <c r="I58" s="23">
         <f t="shared" si="210"/>
-        <v>9.5172413793103452</v>
+        <v>10.468965517241381</v>
       </c>
       <c r="J58" s="23">
         <f t="shared" si="210"/>
-        <v>4.7586206896551726</v>
+        <v>5.2344827586206906</v>
       </c>
       <c r="K58" s="23">
         <f t="shared" si="210"/>
-        <v>7.137931034482758</v>
+        <v>7.8517241379310345</v>
       </c>
       <c r="L58" s="23">
         <f t="shared" si="210"/>
-        <v>7.137931034482758</v>
+        <v>7.8517241379310345</v>
       </c>
       <c r="M58" s="23">
         <f t="shared" si="210"/>
-        <v>4.7586206896551726</v>
+        <v>5.2344827586206906</v>
       </c>
       <c r="N58" s="23">
         <f t="shared" si="210"/>
-        <v>5.9482758620689644</v>
+        <v>6.5431034482758612</v>
       </c>
       <c r="O58" s="23">
         <f t="shared" si="210"/>
-        <v>7.137931034482758</v>
+        <v>7.8517241379310345</v>
       </c>
       <c r="P58" s="23">
         <f t="shared" si="210"/>
-        <v>7.137931034482758</v>
-      </c>
-      <c r="Q58" s="23" t="str">
+        <v>7.8517241379310345</v>
+      </c>
+      <c r="Q58" s="23">
         <f t="shared" si="210"/>
-        <v/>
+        <v>8.7241379310344822</v>
       </c>
       <c r="R58" s="23" t="str">
         <f t="shared" si="210"/>
@@ -12269,63 +12283,63 @@
       </c>
       <c r="C59" s="32">
         <f t="shared" ref="C59:AH59" si="213">IF(C44&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C44,IF(OR($B$6=3,$B$6=4),C44*1.1,IF(OR($B$6=5,$B$6=6),C44*1.2,IF($B$6=7,C44*1.3,IF($B$6=8,C44*1.35,""))))),"")</f>
-        <v>4.7343147761671078</v>
+        <v>5.2077462537838191</v>
       </c>
       <c r="D59" s="25">
         <f t="shared" si="213"/>
-        <v>4.8975670098280419</v>
+        <v>5.3873237108108469</v>
       </c>
       <c r="E59" s="25">
         <f t="shared" si="213"/>
-        <v>4.8554226731544405</v>
+        <v>5.3409649404698847</v>
       </c>
       <c r="F59" s="25">
         <f t="shared" si="213"/>
-        <v>3.9180536078624351</v>
+        <v>4.3098589686486788</v>
       </c>
       <c r="G59" s="25">
         <f t="shared" si="213"/>
-        <v>5.2221298651309951</v>
+        <v>5.7443428516440953</v>
       </c>
       <c r="H59" s="25">
         <f t="shared" si="213"/>
-        <v>6.203584879115521</v>
+        <v>6.8239433670270735</v>
       </c>
       <c r="I59" s="25">
         <f t="shared" si="213"/>
-        <v>7.8361072157248701</v>
+        <v>8.6197179372973576</v>
       </c>
       <c r="J59" s="25">
         <f t="shared" si="213"/>
-        <v>3.9180536078624351</v>
+        <v>4.3098589686486788</v>
       </c>
       <c r="K59" s="25">
         <f t="shared" si="213"/>
-        <v>5.877080411793651</v>
+        <v>6.4647884529730169</v>
       </c>
       <c r="L59" s="25">
         <f t="shared" si="213"/>
-        <v>5.877080411793651</v>
+        <v>6.4647884529730169</v>
       </c>
       <c r="M59" s="25">
         <f t="shared" si="213"/>
-        <v>3.9180536078624351</v>
+        <v>4.3098589686486788</v>
       </c>
       <c r="N59" s="25">
         <f t="shared" si="213"/>
-        <v>4.8975670098280419</v>
+        <v>5.3873237108108469</v>
       </c>
       <c r="O59" s="25">
         <f t="shared" si="213"/>
-        <v>5.877080411793651</v>
+        <v>6.4647884529730169</v>
       </c>
       <c r="P59" s="25">
         <f t="shared" si="213"/>
-        <v>5.877080411793651</v>
-      </c>
-      <c r="Q59" s="25" t="str">
+        <v>6.4647884529730169</v>
+      </c>
+      <c r="Q59" s="25">
         <f t="shared" si="213"/>
-        <v/>
+        <v>7.1830982810811301</v>
       </c>
       <c r="R59" s="25" t="str">
         <f t="shared" si="213"/>
@@ -12579,63 +12593,63 @@
       </c>
       <c r="C60" s="33">
         <f t="shared" ref="C60:AH60" si="216">IF(C45&lt;&gt;"",IF(OR($B$6=1,$B$6=2),C45,IF(OR($B$6=3,$B$6=4),C45*1.1,IF(OR($B$6=5,$B$6=6),C45*1.2,IF($B$6=7,C45*1.3,IF($B$6=8,C45*1.35,""))))),"")</f>
-        <v>3.8980411130146457</v>
+        <v>4.2878452243161105</v>
       </c>
       <c r="D60" s="26">
         <f t="shared" si="216"/>
-        <v>4.0324563238082538</v>
+        <v>4.4357019561890798</v>
       </c>
       <c r="E60" s="26">
         <f t="shared" si="216"/>
-        <v>3.9633550766057062</v>
+        <v>4.3596905842662768</v>
       </c>
       <c r="F60" s="26">
         <f t="shared" si="216"/>
-        <v>3.2259650590466049</v>
+        <v>3.5485615649512656</v>
       </c>
       <c r="G60" s="26">
         <f t="shared" si="216"/>
-        <v>4.2980900517418421</v>
+        <v>4.7278990569160264</v>
       </c>
       <c r="H60" s="26">
         <f t="shared" si="216"/>
-        <v>5.1077780101571228</v>
+        <v>5.6185558111728353</v>
       </c>
       <c r="I60" s="26">
         <f t="shared" si="216"/>
-        <v>6.4519301180932098</v>
+        <v>7.0971231299025312</v>
       </c>
       <c r="J60" s="26">
         <f t="shared" si="216"/>
-        <v>3.2259650590466049</v>
+        <v>3.5485615649512656</v>
       </c>
       <c r="K60" s="26">
         <f t="shared" si="216"/>
-        <v>4.8389475885699049</v>
+        <v>5.3228423474268958</v>
       </c>
       <c r="L60" s="26">
         <f t="shared" si="216"/>
-        <v>4.8389475885699049</v>
+        <v>5.3228423474268958</v>
       </c>
       <c r="M60" s="26">
         <f t="shared" si="216"/>
-        <v>3.2259650590466049</v>
+        <v>3.5485615649512656</v>
       </c>
       <c r="N60" s="26">
         <f t="shared" si="216"/>
-        <v>4.0324563238082538</v>
+        <v>4.4357019561890798</v>
       </c>
       <c r="O60" s="26">
         <f t="shared" si="216"/>
-        <v>4.8389475885699049</v>
+        <v>5.3228423474268958</v>
       </c>
       <c r="P60" s="26">
         <f t="shared" si="216"/>
-        <v>4.8389475885699049</v>
-      </c>
-      <c r="Q60" s="26" t="str">
+        <v>5.3228423474268958</v>
+      </c>
+      <c r="Q60" s="26">
         <f t="shared" si="216"/>
-        <v/>
+        <v>5.9142692749187731</v>
       </c>
       <c r="R60" s="26" t="str">
         <f t="shared" si="216"/>
